--- a/output/Dimension_JIAF_Somalia___SOM.xlsx
+++ b/output/Dimension_JIAF_Somalia___SOM.xlsx
@@ -159,67 +159,41 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/output/Dimension_JIAF_Somalia___SOM.xlsx
+++ b/output/Dimension_JIAF_Somalia___SOM.xlsx
@@ -92,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -126,7 +126,7 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <left style="thin"/>
@@ -134,11 +134,17 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -180,6 +186,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,7 +570,7 @@
     <col width="44" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="29" customWidth="1" min="11" max="11"/>
@@ -588,7 +602,7 @@
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>admin_1</t>
+          <t>admin_2</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -674,67 +688,1677 @@
       <c r="D6" s="11" t="n"/>
       <c r="E6" s="12" t="inlineStr">
         <is>
+          <t>afgooye</t>
+        </is>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H6" s="13" t="n">
+        <v>243100</v>
+      </c>
+      <c r="I6" s="14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16" t="inlineStr">
+        <is>
+          <t>22.1%</t>
+        </is>
+      </c>
+      <c r="N6" s="16" t="n">
+        <v>53665</v>
+      </c>
+      <c r="O6" s="17" t="inlineStr">
+        <is>
+          <t>41.9%</t>
+        </is>
+      </c>
+      <c r="P6" s="17" t="n">
+        <v>101746</v>
+      </c>
+      <c r="Q6" s="18" t="inlineStr">
+        <is>
+          <t>36.1%</t>
+        </is>
+      </c>
+      <c r="R6" s="18" t="n">
+        <v>87688</v>
+      </c>
+      <c r="S6" s="19" t="inlineStr">
+        <is>
+          <t>63.9%</t>
+        </is>
+      </c>
+      <c r="T6" s="20" t="n">
+        <v>155412</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="n"/>
+      <c r="B7" s="11" t="n"/>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="11" t="n"/>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>baardheere</t>
+        </is>
+      </c>
+      <c r="F7" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H7" s="13" t="n">
+        <v>115725</v>
+      </c>
+      <c r="I7" s="14" t="inlineStr">
+        <is>
+          <t>59.4%</t>
+        </is>
+      </c>
+      <c r="J7" s="14" t="n">
+        <v>68701</v>
+      </c>
+      <c r="K7" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="17" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+      <c r="P7" s="17" t="n">
+        <v>6964</v>
+      </c>
+      <c r="Q7" s="18" t="inlineStr">
+        <is>
+          <t>34.6%</t>
+        </is>
+      </c>
+      <c r="R7" s="18" t="n">
+        <v>40061</v>
+      </c>
+      <c r="S7" s="19" t="inlineStr">
+        <is>
+          <t>65.4%</t>
+        </is>
+      </c>
+      <c r="T7" s="20" t="n">
+        <v>75665</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="11" t="n"/>
+      <c r="C8" s="11" t="n"/>
+      <c r="D8" s="11" t="n"/>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
           <t>banadir</t>
         </is>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F8" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="G6" s="13" t="inlineStr">
+      <c r="G8" s="13" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H6" s="13" t="n">
+      <c r="H8" s="13" t="n">
         <v>93763</v>
       </c>
-      <c r="I6" s="14" t="inlineStr">
+      <c r="I8" s="14" t="inlineStr">
+        <is>
+          <t>49.0%</t>
+        </is>
+      </c>
+      <c r="J8" s="14" t="n">
+        <v>45945</v>
+      </c>
+      <c r="K8" s="15" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="L8" s="15" t="n">
+        <v>972</v>
+      </c>
+      <c r="M8" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="17" t="inlineStr">
+        <is>
+          <t>13.8%</t>
+        </is>
+      </c>
+      <c r="P8" s="17" t="n">
+        <v>12917</v>
+      </c>
+      <c r="Q8" s="18" t="inlineStr">
+        <is>
+          <t>36.2%</t>
+        </is>
+      </c>
+      <c r="R8" s="18" t="n">
+        <v>33929</v>
+      </c>
+      <c r="S8" s="19" t="inlineStr">
+        <is>
+          <t>63.8%</t>
+        </is>
+      </c>
+      <c r="T8" s="20" t="n">
+        <v>59834</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="n"/>
+      <c r="B9" s="11" t="n"/>
+      <c r="C9" s="11" t="n"/>
+      <c r="D9" s="11" t="n"/>
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t>baraawe</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H9" s="13" t="n">
+        <v>173573</v>
+      </c>
+      <c r="I9" s="14" t="inlineStr">
+        <is>
+          <t>48.8%</t>
+        </is>
+      </c>
+      <c r="J9" s="14" t="n">
+        <v>84643</v>
+      </c>
+      <c r="K9" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16" t="inlineStr">
+        <is>
+          <t>18.5%</t>
+        </is>
+      </c>
+      <c r="N9" s="16" t="n">
+        <v>32054</v>
+      </c>
+      <c r="O9" s="17" t="inlineStr">
+        <is>
+          <t>18.5%</t>
+        </is>
+      </c>
+      <c r="P9" s="17" t="n">
+        <v>32054</v>
+      </c>
+      <c r="Q9" s="18" t="inlineStr">
+        <is>
+          <t>14.3%</t>
+        </is>
+      </c>
+      <c r="R9" s="18" t="n">
+        <v>24824</v>
+      </c>
+      <c r="S9" s="19" t="inlineStr">
+        <is>
+          <t>85.7%</t>
+        </is>
+      </c>
+      <c r="T9" s="20" t="n">
+        <v>148750</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="11" t="n"/>
+      <c r="C10" s="11" t="n"/>
+      <c r="D10" s="11" t="n"/>
+      <c r="E10" s="12" t="inlineStr">
+        <is>
+          <t>baydhaba</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H10" s="13" t="n">
+        <v>240015</v>
+      </c>
+      <c r="I10" s="14" t="inlineStr">
+        <is>
+          <t>16.9%</t>
+        </is>
+      </c>
+      <c r="J10" s="14" t="n">
+        <v>40505</v>
+      </c>
+      <c r="K10" s="15" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="L10" s="15" t="n">
+        <v>3827</v>
+      </c>
+      <c r="M10" s="16" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+      <c r="N10" s="16" t="n">
+        <v>14855</v>
+      </c>
+      <c r="O10" s="17" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+      <c r="P10" s="17" t="n">
+        <v>16764</v>
+      </c>
+      <c r="Q10" s="18" t="inlineStr">
+        <is>
+          <t>68.4%</t>
+        </is>
+      </c>
+      <c r="R10" s="18" t="n">
+        <v>164063</v>
+      </c>
+      <c r="S10" s="19" t="inlineStr">
+        <is>
+          <t>31.6%</t>
+        </is>
+      </c>
+      <c r="T10" s="20" t="n">
+        <v>75951</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="11" t="n"/>
+      <c r="C11" s="11" t="n"/>
+      <c r="D11" s="11" t="n"/>
+      <c r="E11" s="12" t="inlineStr">
+        <is>
+          <t>borama</t>
+        </is>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G11" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H11" s="13" t="n">
+        <v>81852</v>
+      </c>
+      <c r="I11" s="14" t="inlineStr">
+        <is>
+          <t>26.9%</t>
+        </is>
+      </c>
+      <c r="J11" s="14" t="n">
+        <v>22017</v>
+      </c>
+      <c r="K11" s="15" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="L11" s="15" t="n">
+        <v>3547</v>
+      </c>
+      <c r="M11" s="16" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
+      <c r="N11" s="16" t="n">
+        <v>4042</v>
+      </c>
+      <c r="O11" s="17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P11" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="18" t="inlineStr">
+        <is>
+          <t>63.8%</t>
+        </is>
+      </c>
+      <c r="R11" s="18" t="n">
+        <v>52247</v>
+      </c>
+      <c r="S11" s="19" t="inlineStr">
+        <is>
+          <t>36.2%</t>
+        </is>
+      </c>
+      <c r="T11" s="20" t="n">
+        <v>29606</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="11" t="n"/>
+      <c r="C12" s="11" t="n"/>
+      <c r="D12" s="11" t="n"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>buur_hakaba</t>
+        </is>
+      </c>
+      <c r="F12" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="G12" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H12" s="13" t="n">
+        <v>94050</v>
+      </c>
+      <c r="I12" s="14" t="inlineStr">
+        <is>
+          <t>91.2%</t>
+        </is>
+      </c>
+      <c r="J12" s="14" t="n">
+        <v>85742</v>
+      </c>
+      <c r="K12" s="15" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="L12" s="15" t="n">
+        <v>4138</v>
+      </c>
+      <c r="M12" s="16" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="N12" s="16" t="n">
+        <v>1390</v>
+      </c>
+      <c r="O12" s="17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="18" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="R12" s="18" t="n">
+        <v>2780</v>
+      </c>
+      <c r="S12" s="19" t="inlineStr">
+        <is>
+          <t>97.0%</t>
+        </is>
+      </c>
+      <c r="T12" s="20" t="n">
+        <v>91270</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="11" t="n"/>
+      <c r="C13" s="11" t="n"/>
+      <c r="D13" s="11" t="n"/>
+      <c r="E13" s="12" t="inlineStr">
+        <is>
+          <t>ceel_waaq</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H13" s="13" t="n">
+        <v>71100</v>
+      </c>
+      <c r="I13" s="14" t="inlineStr">
+        <is>
+          <t>56.8%</t>
+        </is>
+      </c>
+      <c r="J13" s="14" t="n">
+        <v>40382</v>
+      </c>
+      <c r="K13" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="16" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="N13" s="16" t="n">
+        <v>2991</v>
+      </c>
+      <c r="O13" s="17" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="P13" s="17" t="n">
+        <v>4690</v>
+      </c>
+      <c r="Q13" s="18" t="inlineStr">
+        <is>
+          <t>32.4%</t>
+        </is>
+      </c>
+      <c r="R13" s="18" t="n">
+        <v>23037</v>
+      </c>
+      <c r="S13" s="19" t="inlineStr">
+        <is>
+          <t>67.6%</t>
+        </is>
+      </c>
+      <c r="T13" s="20" t="n">
+        <v>48063</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="11" t="n"/>
+      <c r="C14" s="11" t="n"/>
+      <c r="D14" s="11" t="n"/>
+      <c r="E14" s="12" t="inlineStr">
+        <is>
+          <t>diinsoor</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H14" s="13" t="n">
+        <v>206737</v>
+      </c>
+      <c r="I14" s="14" t="inlineStr">
+        <is>
+          <t>41.0%</t>
+        </is>
+      </c>
+      <c r="J14" s="14" t="n">
+        <v>84743</v>
+      </c>
+      <c r="K14" s="15" t="inlineStr">
+        <is>
+          <t>9.9%</t>
+        </is>
+      </c>
+      <c r="L14" s="15" t="n">
+        <v>20528</v>
+      </c>
+      <c r="M14" s="16" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="N14" s="16" t="n">
+        <v>5465</v>
+      </c>
+      <c r="O14" s="17" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
+      <c r="P14" s="17" t="n">
+        <v>10175</v>
+      </c>
+      <c r="Q14" s="18" t="inlineStr">
+        <is>
+          <t>41.5%</t>
+        </is>
+      </c>
+      <c r="R14" s="18" t="n">
+        <v>85825</v>
+      </c>
+      <c r="S14" s="19" t="inlineStr">
+        <is>
+          <t>58.5%</t>
+        </is>
+      </c>
+      <c r="T14" s="20" t="n">
+        <v>120911</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="11" t="n"/>
+      <c r="C15" s="11" t="n"/>
+      <c r="D15" s="11" t="n"/>
+      <c r="E15" s="12" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H15" s="13" t="n">
+        <v>79357</v>
+      </c>
+      <c r="I15" s="14" t="inlineStr">
+        <is>
+          <t>43.0%</t>
+        </is>
+      </c>
+      <c r="J15" s="14" t="n">
+        <v>34116</v>
+      </c>
+      <c r="K15" s="15" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="L15" s="15" t="n">
+        <v>165</v>
+      </c>
+      <c r="M15" s="16" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="N15" s="16" t="n">
+        <v>302</v>
+      </c>
+      <c r="O15" s="17" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="P15" s="17" t="n">
+        <v>2528</v>
+      </c>
+      <c r="Q15" s="18" t="inlineStr">
+        <is>
+          <t>53.2%</t>
+        </is>
+      </c>
+      <c r="R15" s="18" t="n">
+        <v>42247</v>
+      </c>
+      <c r="S15" s="19" t="inlineStr">
         <is>
           <t>46.8%</t>
         </is>
       </c>
-      <c r="J6" s="14" t="n">
-        <v>43883</v>
-      </c>
-      <c r="K6" s="15" t="inlineStr">
+      <c r="T15" s="20" t="n">
+        <v>37110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="11" t="n"/>
+      <c r="D16" s="11" t="n"/>
+      <c r="E16" s="12" t="inlineStr">
+        <is>
+          <t>galdogob</t>
+        </is>
+      </c>
+      <c r="F16" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H16" s="13" t="n">
+        <v>94127</v>
+      </c>
+      <c r="I16" s="14" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="J16" s="14" t="n">
+        <v>18837</v>
+      </c>
+      <c r="K16" s="15" t="inlineStr">
         <is>
           <t>0.9%</t>
         </is>
       </c>
-      <c r="L6" s="15" t="n">
-        <v>873</v>
-      </c>
-      <c r="M6" s="16" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="N6" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="17" t="inlineStr">
-        <is>
-          <t>10.8%</t>
-        </is>
-      </c>
-      <c r="P6" s="17" t="n">
-        <v>10137</v>
-      </c>
-      <c r="Q6" s="18" t="inlineStr">
-        <is>
-          <t>41.5%</t>
-        </is>
-      </c>
-      <c r="R6" s="18" t="n">
-        <v>38870</v>
-      </c>
-      <c r="S6" s="19" t="inlineStr">
-        <is>
-          <t>58.5%</t>
-        </is>
-      </c>
-      <c r="T6" s="20" t="n">
-        <v>54893</v>
+      <c r="L16" s="15" t="n">
+        <v>819</v>
+      </c>
+      <c r="M16" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="17" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="P16" s="17" t="n">
+        <v>586</v>
+      </c>
+      <c r="Q16" s="18" t="inlineStr">
+        <is>
+          <t>78.5%</t>
+        </is>
+      </c>
+      <c r="R16" s="18" t="n">
+        <v>73884</v>
+      </c>
+      <c r="S16" s="19" t="inlineStr">
+        <is>
+          <t>21.5%</t>
+        </is>
+      </c>
+      <c r="T16" s="20" t="n">
+        <v>20243</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="11" t="n"/>
+      <c r="C17" s="11" t="n"/>
+      <c r="D17" s="11" t="n"/>
+      <c r="E17" s="12" t="inlineStr">
+        <is>
+          <t>garbahaarey</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="G17" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H17" s="13" t="n">
+        <v>82380</v>
+      </c>
+      <c r="I17" s="14" t="inlineStr">
+        <is>
+          <t>90.1%</t>
+        </is>
+      </c>
+      <c r="J17" s="14" t="n">
+        <v>74257</v>
+      </c>
+      <c r="K17" s="15" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="L17" s="15" t="n">
+        <v>2538</v>
+      </c>
+      <c r="M17" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N17" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="18" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="R17" s="18" t="n">
+        <v>5585</v>
+      </c>
+      <c r="S17" s="19" t="inlineStr">
+        <is>
+          <t>93.2%</t>
+        </is>
+      </c>
+      <c r="T17" s="20" t="n">
+        <v>76795</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="11" t="n"/>
+      <c r="C18" s="11" t="n"/>
+      <c r="D18" s="11" t="n"/>
+      <c r="E18" s="12" t="inlineStr">
+        <is>
+          <t>gebiley</t>
+        </is>
+      </c>
+      <c r="F18" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="G18" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H18" s="13" t="n">
+        <v>75316</v>
+      </c>
+      <c r="I18" s="14" t="inlineStr">
+        <is>
+          <t>29.8%</t>
+        </is>
+      </c>
+      <c r="J18" s="14" t="n">
+        <v>22413</v>
+      </c>
+      <c r="K18" s="15" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="L18" s="15" t="n">
+        <v>3328</v>
+      </c>
+      <c r="M18" s="16" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="N18" s="16" t="n">
+        <v>1535</v>
+      </c>
+      <c r="O18" s="17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P18" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="18" t="inlineStr">
+        <is>
+          <t>63.8%</t>
+        </is>
+      </c>
+      <c r="R18" s="18" t="n">
+        <v>48040</v>
+      </c>
+      <c r="S18" s="19" t="inlineStr">
+        <is>
+          <t>36.2%</t>
+        </is>
+      </c>
+      <c r="T18" s="20" t="n">
+        <v>27276</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="11" t="n"/>
+      <c r="C19" s="11" t="n"/>
+      <c r="D19" s="11" t="n"/>
+      <c r="E19" s="12" t="inlineStr">
+        <is>
+          <t>hargeysa</t>
+        </is>
+      </c>
+      <c r="F19" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H19" s="13" t="n">
+        <v>49284</v>
+      </c>
+      <c r="I19" s="14" t="inlineStr">
+        <is>
+          <t>40.8%</t>
+        </is>
+      </c>
+      <c r="J19" s="14" t="n">
+        <v>20086</v>
+      </c>
+      <c r="K19" s="15" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+      <c r="L19" s="15" t="n">
+        <v>2946</v>
+      </c>
+      <c r="M19" s="16" t="inlineStr">
+        <is>
+          <t>15.0%</t>
+        </is>
+      </c>
+      <c r="N19" s="16" t="n">
+        <v>7389</v>
+      </c>
+      <c r="O19" s="17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P19" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="18" t="inlineStr">
+        <is>
+          <t>38.3%</t>
+        </is>
+      </c>
+      <c r="R19" s="18" t="n">
+        <v>18863</v>
+      </c>
+      <c r="S19" s="19" t="inlineStr">
+        <is>
+          <t>61.7%</t>
+        </is>
+      </c>
+      <c r="T19" s="20" t="n">
+        <v>30421</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="11" t="n"/>
+      <c r="C20" s="11" t="n"/>
+      <c r="D20" s="11" t="n"/>
+      <c r="E20" s="12" t="inlineStr">
+        <is>
+          <t>hobyo</t>
+        </is>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="G20" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H20" s="13" t="n">
+        <v>469612</v>
+      </c>
+      <c r="I20" s="14" t="inlineStr">
+        <is>
+          <t>54.2%</t>
+        </is>
+      </c>
+      <c r="J20" s="14" t="n">
+        <v>254687</v>
+      </c>
+      <c r="K20" s="15" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="L20" s="15" t="n">
+        <v>5560</v>
+      </c>
+      <c r="M20" s="16" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="N20" s="16" t="n">
+        <v>20542</v>
+      </c>
+      <c r="O20" s="17" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="P20" s="17" t="n">
+        <v>2342</v>
+      </c>
+      <c r="Q20" s="18" t="inlineStr">
+        <is>
+          <t>39.7%</t>
+        </is>
+      </c>
+      <c r="R20" s="18" t="n">
+        <v>186481</v>
+      </c>
+      <c r="S20" s="19" t="inlineStr">
+        <is>
+          <t>60.3%</t>
+        </is>
+      </c>
+      <c r="T20" s="20" t="n">
+        <v>283132</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="n"/>
+      <c r="B21" s="11" t="n"/>
+      <c r="C21" s="11" t="n"/>
+      <c r="D21" s="11" t="n"/>
+      <c r="E21" s="12" t="inlineStr">
+        <is>
+          <t>jariiban</t>
+        </is>
+      </c>
+      <c r="F21" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H21" s="13" t="n">
+        <v>77970</v>
+      </c>
+      <c r="I21" s="14" t="inlineStr">
+        <is>
+          <t>50.4%</t>
+        </is>
+      </c>
+      <c r="J21" s="14" t="n">
+        <v>39276</v>
+      </c>
+      <c r="K21" s="15" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="L21" s="15" t="n">
+        <v>5685</v>
+      </c>
+      <c r="M21" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="18" t="inlineStr">
+        <is>
+          <t>42.3%</t>
+        </is>
+      </c>
+      <c r="R21" s="18" t="n">
+        <v>33009</v>
+      </c>
+      <c r="S21" s="19" t="inlineStr">
+        <is>
+          <t>57.7%</t>
+        </is>
+      </c>
+      <c r="T21" s="20" t="n">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="11" t="n"/>
+      <c r="C22" s="11" t="n"/>
+      <c r="D22" s="11" t="n"/>
+      <c r="E22" s="12" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="F22" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H22" s="13" t="n">
+        <v>85275</v>
+      </c>
+      <c r="I22" s="14" t="inlineStr">
+        <is>
+          <t>57.9%</t>
+        </is>
+      </c>
+      <c r="J22" s="14" t="n">
+        <v>49414</v>
+      </c>
+      <c r="K22" s="15" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="L22" s="15" t="n">
+        <v>1691</v>
+      </c>
+      <c r="M22" s="16" t="inlineStr">
+        <is>
+          <t>14.9%</t>
+        </is>
+      </c>
+      <c r="N22" s="16" t="n">
+        <v>12675</v>
+      </c>
+      <c r="O22" s="17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P22" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="18" t="inlineStr">
+        <is>
+          <t>25.2%</t>
+        </is>
+      </c>
+      <c r="R22" s="18" t="n">
+        <v>21495</v>
+      </c>
+      <c r="S22" s="19" t="inlineStr">
+        <is>
+          <t>74.8%</t>
+        </is>
+      </c>
+      <c r="T22" s="20" t="n">
+        <v>63780</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="n"/>
+      <c r="B23" s="11" t="n"/>
+      <c r="C23" s="11" t="n"/>
+      <c r="D23" s="11" t="n"/>
+      <c r="E23" s="12" t="inlineStr">
+        <is>
+          <t>marka</t>
+        </is>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="G23" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H23" s="13" t="n">
+        <v>81840</v>
+      </c>
+      <c r="I23" s="14" t="inlineStr">
+        <is>
+          <t>42.5%</t>
+        </is>
+      </c>
+      <c r="J23" s="14" t="n">
+        <v>34791</v>
+      </c>
+      <c r="K23" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L23" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N23" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P23" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="18" t="inlineStr">
+        <is>
+          <t>57.5%</t>
+        </is>
+      </c>
+      <c r="R23" s="18" t="n">
+        <v>47049</v>
+      </c>
+      <c r="S23" s="19" t="inlineStr">
+        <is>
+          <t>42.5%</t>
+        </is>
+      </c>
+      <c r="T23" s="20" t="n">
+        <v>34791</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="n"/>
+      <c r="B24" s="11" t="n"/>
+      <c r="C24" s="11" t="n"/>
+      <c r="D24" s="11" t="n"/>
+      <c r="E24" s="12" t="inlineStr">
+        <is>
+          <t>owdweyne</t>
+        </is>
+      </c>
+      <c r="F24" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="G24" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H24" s="13" t="n">
+        <v>116609</v>
+      </c>
+      <c r="I24" s="14" t="inlineStr">
+        <is>
+          <t>30.1%</t>
+        </is>
+      </c>
+      <c r="J24" s="14" t="n">
+        <v>35093</v>
+      </c>
+      <c r="K24" s="15" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="L24" s="15" t="n">
+        <v>6549</v>
+      </c>
+      <c r="M24" s="16" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="N24" s="16" t="n">
+        <v>4776</v>
+      </c>
+      <c r="O24" s="17" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="P24" s="17" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q24" s="18" t="inlineStr">
+        <is>
+          <t>59.9%</t>
+        </is>
+      </c>
+      <c r="R24" s="18" t="n">
+        <v>69845</v>
+      </c>
+      <c r="S24" s="19" t="inlineStr">
+        <is>
+          <t>40.1%</t>
+        </is>
+      </c>
+      <c r="T24" s="20" t="n">
+        <v>46765</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="n"/>
+      <c r="B25" s="11" t="n"/>
+      <c r="C25" s="11" t="n"/>
+      <c r="D25" s="11" t="n"/>
+      <c r="E25" s="12" t="inlineStr">
+        <is>
+          <t>qansax_dheere</t>
+        </is>
+      </c>
+      <c r="F25" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G25" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H25" s="13" t="n">
+        <v>103387</v>
+      </c>
+      <c r="I25" s="14" t="inlineStr">
+        <is>
+          <t>54.2%</t>
+        </is>
+      </c>
+      <c r="J25" s="14" t="n">
+        <v>56024</v>
+      </c>
+      <c r="K25" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L25" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N25" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="17" t="inlineStr">
+        <is>
+          <t>34.5%</t>
+        </is>
+      </c>
+      <c r="P25" s="17" t="n">
+        <v>35711</v>
+      </c>
+      <c r="Q25" s="18" t="inlineStr">
+        <is>
+          <t>11.3%</t>
+        </is>
+      </c>
+      <c r="R25" s="18" t="n">
+        <v>11652</v>
+      </c>
+      <c r="S25" s="19" t="inlineStr">
+        <is>
+          <t>88.7%</t>
+        </is>
+      </c>
+      <c r="T25" s="20" t="n">
+        <v>91735</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="n"/>
+      <c r="B26" s="11" t="n"/>
+      <c r="C26" s="11" t="n"/>
+      <c r="D26" s="11" t="n"/>
+      <c r="E26" s="12" t="inlineStr">
+        <is>
+          <t>qoryooley</t>
+        </is>
+      </c>
+      <c r="F26" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G26" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H26" s="13" t="n">
+        <v>70760</v>
+      </c>
+      <c r="I26" s="14" t="inlineStr">
+        <is>
+          <t>74.5%</t>
+        </is>
+      </c>
+      <c r="J26" s="14" t="n">
+        <v>52690</v>
+      </c>
+      <c r="K26" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L26" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="16" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="N26" s="16" t="n">
+        <v>655</v>
+      </c>
+      <c r="O26" s="17" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="P26" s="17" t="n">
+        <v>992</v>
+      </c>
+      <c r="Q26" s="18" t="inlineStr">
+        <is>
+          <t>23.2%</t>
+        </is>
+      </c>
+      <c r="R26" s="18" t="n">
+        <v>16422</v>
+      </c>
+      <c r="S26" s="19" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="T26" s="20" t="n">
+        <v>54338</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="n"/>
+      <c r="B27" s="11" t="n"/>
+      <c r="C27" s="11" t="n"/>
+      <c r="D27" s="11" t="n"/>
+      <c r="E27" s="12" t="inlineStr">
+        <is>
+          <t>waajid</t>
+        </is>
+      </c>
+      <c r="F27" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G27" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H27" s="13" t="n">
+        <v>114132</v>
+      </c>
+      <c r="I27" s="14" t="inlineStr">
+        <is>
+          <t>50.1%</t>
+        </is>
+      </c>
+      <c r="J27" s="14" t="n">
+        <v>57150</v>
+      </c>
+      <c r="K27" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L27" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P27" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="18" t="inlineStr">
+        <is>
+          <t>49.9%</t>
+        </is>
+      </c>
+      <c r="R27" s="18" t="n">
+        <v>56982</v>
+      </c>
+      <c r="S27" s="19" t="inlineStr">
+        <is>
+          <t>50.1%</t>
+        </is>
+      </c>
+      <c r="T27" s="20" t="n">
+        <v>57150</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="n"/>
+      <c r="B28" s="11" t="n"/>
+      <c r="C28" s="11" t="n"/>
+      <c r="D28" s="11" t="n"/>
+      <c r="E28" s="12" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="F28" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="G28" s="13" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H28" s="13" t="n">
+        <v>284225</v>
+      </c>
+      <c r="I28" s="14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J28" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L28" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N28" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="17" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="P28" s="17" t="n">
+        <v>284225</v>
+      </c>
+      <c r="Q28" s="18" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="19" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="T28" s="20" t="n">
+        <v>284225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="n"/>
+      <c r="B29" s="11" t="n"/>
+      <c r="C29" s="11" t="n"/>
+      <c r="D29" s="11" t="n"/>
+      <c r="E29" s="21" t="inlineStr">
+        <is>
+          <t>xudur</t>
+        </is>
+      </c>
+      <c r="F29" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" s="22" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H29" s="22" t="n">
+        <v>98820</v>
+      </c>
+      <c r="I29" s="23" t="inlineStr">
+        <is>
+          <t>42.1%</t>
+        </is>
+      </c>
+      <c r="J29" s="23" t="n">
+        <v>41576</v>
+      </c>
+      <c r="K29" s="24" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L29" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="25" t="inlineStr">
+        <is>
+          <t>5.8%</t>
+        </is>
+      </c>
+      <c r="N29" s="25" t="n">
+        <v>5691</v>
+      </c>
+      <c r="O29" s="26" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="P29" s="26" t="n">
+        <v>4777</v>
+      </c>
+      <c r="Q29" s="27" t="inlineStr">
+        <is>
+          <t>47.3%</t>
+        </is>
+      </c>
+      <c r="R29" s="27" t="n">
+        <v>46777</v>
+      </c>
+      <c r="S29" s="28" t="inlineStr">
+        <is>
+          <t>52.7%</t>
+        </is>
+      </c>
+      <c r="T29" s="20" t="n">
+        <v>52044</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +2375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,7 +2418,7 @@
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>admin_1</t>
+          <t>admin_2</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -880,67 +2504,487 @@
       <c r="D6" s="11" t="n"/>
       <c r="E6" s="12" t="inlineStr">
         <is>
+          <t>afgooye</t>
+        </is>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H6" s="13" t="n">
+        <v>34729</v>
+      </c>
+      <c r="I6" s="14" t="inlineStr">
+        <is>
+          <t>64.3%</t>
+        </is>
+      </c>
+      <c r="J6" s="14" t="n">
+        <v>22341</v>
+      </c>
+      <c r="K6" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17" t="inlineStr">
+        <is>
+          <t>23.2%</t>
+        </is>
+      </c>
+      <c r="P6" s="17" t="n">
+        <v>8052</v>
+      </c>
+      <c r="Q6" s="18" t="inlineStr">
+        <is>
+          <t>12.5%</t>
+        </is>
+      </c>
+      <c r="R6" s="18" t="n">
+        <v>4335</v>
+      </c>
+      <c r="S6" s="19" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="T6" s="20" t="n">
+        <v>30393</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="n"/>
+      <c r="B7" s="11" t="n"/>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="11" t="n"/>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>baardheere</t>
+        </is>
+      </c>
+      <c r="F7" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H7" s="13" t="n">
+        <v>16532</v>
+      </c>
+      <c r="I7" s="14" t="inlineStr">
+        <is>
+          <t>55.3%</t>
+        </is>
+      </c>
+      <c r="J7" s="14" t="n">
+        <v>9149</v>
+      </c>
+      <c r="K7" s="15" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="L7" s="15" t="n">
+        <v>707</v>
+      </c>
+      <c r="M7" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="17" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="P7" s="17" t="n">
+        <v>654</v>
+      </c>
+      <c r="Q7" s="18" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="R7" s="18" t="n">
+        <v>6022</v>
+      </c>
+      <c r="S7" s="19" t="inlineStr">
+        <is>
+          <t>63.6%</t>
+        </is>
+      </c>
+      <c r="T7" s="20" t="n">
+        <v>10510</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="11" t="n"/>
+      <c r="C8" s="11" t="n"/>
+      <c r="D8" s="11" t="n"/>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
           <t>banadir</t>
         </is>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F8" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="G6" s="13" t="inlineStr">
+      <c r="G8" s="13" t="inlineStr">
         <is>
           <t>New IDPs</t>
         </is>
       </c>
-      <c r="H6" s="13" t="n">
+      <c r="H8" s="13" t="n">
         <v>13395</v>
       </c>
-      <c r="I6" s="14" t="inlineStr">
-        <is>
-          <t>73.5%</t>
-        </is>
-      </c>
-      <c r="J6" s="14" t="n">
-        <v>9849</v>
-      </c>
-      <c r="K6" s="15" t="inlineStr">
+      <c r="I8" s="14" t="inlineStr">
+        <is>
+          <t>75.1%</t>
+        </is>
+      </c>
+      <c r="J8" s="14" t="n">
+        <v>10064</v>
+      </c>
+      <c r="K8" s="15" t="inlineStr">
         <is>
           <t>0.6%</t>
         </is>
       </c>
-      <c r="L6" s="15" t="n">
-        <v>85</v>
-      </c>
-      <c r="M6" s="16" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="N6" s="16" t="n">
-        <v>61</v>
-      </c>
-      <c r="O6" s="17" t="inlineStr">
-        <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="P6" s="17" t="n">
-        <v>1353</v>
-      </c>
-      <c r="Q6" s="18" t="inlineStr">
-        <is>
-          <t>15.3%</t>
-        </is>
-      </c>
-      <c r="R6" s="18" t="n">
-        <v>2046</v>
-      </c>
-      <c r="S6" s="19" t="inlineStr">
-        <is>
-          <t>84.7%</t>
-        </is>
-      </c>
-      <c r="T6" s="20" t="n">
-        <v>11349</v>
+      <c r="L8" s="15" t="n">
+        <v>80</v>
+      </c>
+      <c r="M8" s="16" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="N8" s="16" t="n">
+        <v>80</v>
+      </c>
+      <c r="O8" s="17" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
+      </c>
+      <c r="P8" s="17" t="n">
+        <v>1268</v>
+      </c>
+      <c r="Q8" s="18" t="inlineStr">
+        <is>
+          <t>14.2%</t>
+        </is>
+      </c>
+      <c r="R8" s="18" t="n">
+        <v>1903</v>
+      </c>
+      <c r="S8" s="19" t="inlineStr">
+        <is>
+          <t>85.8%</t>
+        </is>
+      </c>
+      <c r="T8" s="20" t="n">
+        <v>11491</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="n"/>
+      <c r="B9" s="11" t="n"/>
+      <c r="C9" s="11" t="n"/>
+      <c r="D9" s="11" t="n"/>
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t>baraawe</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="13" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H9" s="13" t="n">
+        <v>24796</v>
+      </c>
+      <c r="I9" s="14" t="inlineStr">
+        <is>
+          <t>68.4%</t>
+        </is>
+      </c>
+      <c r="J9" s="14" t="n">
+        <v>16958</v>
+      </c>
+      <c r="K9" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+      <c r="N9" s="16" t="n">
+        <v>1732</v>
+      </c>
+      <c r="O9" s="17" t="inlineStr">
+        <is>
+          <t>24.6%</t>
+        </is>
+      </c>
+      <c r="P9" s="17" t="n">
+        <v>6106</v>
+      </c>
+      <c r="Q9" s="18" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="19" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="T9" s="20" t="n">
+        <v>24796</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="11" t="n"/>
+      <c r="C10" s="11" t="n"/>
+      <c r="D10" s="11" t="n"/>
+      <c r="E10" s="12" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="13" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H10" s="13" t="n">
+        <v>11337</v>
+      </c>
+      <c r="I10" s="14" t="inlineStr">
+        <is>
+          <t>65.8%</t>
+        </is>
+      </c>
+      <c r="J10" s="14" t="n">
+        <v>7459</v>
+      </c>
+      <c r="K10" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="N10" s="16" t="n">
+        <v>134</v>
+      </c>
+      <c r="O10" s="17" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="P10" s="17" t="n">
+        <v>621</v>
+      </c>
+      <c r="Q10" s="18" t="inlineStr">
+        <is>
+          <t>27.5%</t>
+        </is>
+      </c>
+      <c r="R10" s="18" t="n">
+        <v>3123</v>
+      </c>
+      <c r="S10" s="19" t="inlineStr">
+        <is>
+          <t>72.5%</t>
+        </is>
+      </c>
+      <c r="T10" s="20" t="n">
+        <v>8213</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="11" t="n"/>
+      <c r="C11" s="11" t="n"/>
+      <c r="D11" s="11" t="n"/>
+      <c r="E11" s="12" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="13" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H11" s="13" t="n">
+        <v>12182</v>
+      </c>
+      <c r="I11" s="14" t="inlineStr">
+        <is>
+          <t>68.9%</t>
+        </is>
+      </c>
+      <c r="J11" s="14" t="n">
+        <v>8390</v>
+      </c>
+      <c r="K11" s="15" t="inlineStr">
+        <is>
+          <t>7.2%</t>
+        </is>
+      </c>
+      <c r="L11" s="15" t="n">
+        <v>880</v>
+      </c>
+      <c r="M11" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="17" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="P11" s="17" t="n">
+        <v>498</v>
+      </c>
+      <c r="Q11" s="18" t="inlineStr">
+        <is>
+          <t>19.8%</t>
+        </is>
+      </c>
+      <c r="R11" s="18" t="n">
+        <v>2415</v>
+      </c>
+      <c r="S11" s="19" t="inlineStr">
+        <is>
+          <t>80.2%</t>
+        </is>
+      </c>
+      <c r="T11" s="20" t="n">
+        <v>9767</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="11" t="n"/>
+      <c r="C12" s="11" t="n"/>
+      <c r="D12" s="11" t="n"/>
+      <c r="E12" s="21" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="F12" s="22" t="n">
+        <v>17</v>
+      </c>
+      <c r="G12" s="22" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H12" s="22" t="n">
+        <v>40604</v>
+      </c>
+      <c r="I12" s="23" t="inlineStr">
+        <is>
+          <t>18.4%</t>
+        </is>
+      </c>
+      <c r="J12" s="23" t="n">
+        <v>7468</v>
+      </c>
+      <c r="K12" s="24" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="L12" s="24" t="n">
+        <v>929</v>
+      </c>
+      <c r="M12" s="25" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="N12" s="25" t="n">
+        <v>341</v>
+      </c>
+      <c r="O12" s="26" t="inlineStr">
+        <is>
+          <t>17.3%</t>
+        </is>
+      </c>
+      <c r="P12" s="26" t="n">
+        <v>7029</v>
+      </c>
+      <c r="Q12" s="27" t="inlineStr">
+        <is>
+          <t>61.2%</t>
+        </is>
+      </c>
+      <c r="R12" s="27" t="n">
+        <v>24837</v>
+      </c>
+      <c r="S12" s="28" t="inlineStr">
+        <is>
+          <t>38.8%</t>
+        </is>
+      </c>
+      <c r="T12" s="20" t="n">
+        <v>15767</v>
       </c>
     </row>
   </sheetData>
@@ -957,7 +3001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,7 +3012,7 @@
     <col width="45" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="29" customWidth="1" min="11" max="11"/>
@@ -1000,7 +3044,7 @@
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>admin_1</t>
+          <t>admin_2</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -1086,67 +3130,1187 @@
       <c r="D6" s="11" t="n"/>
       <c r="E6" s="12" t="inlineStr">
         <is>
+          <t>afgooye</t>
+        </is>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H6" s="13" t="n">
+        <v>69457</v>
+      </c>
+      <c r="I6" s="14" t="inlineStr">
+        <is>
+          <t>79.9%</t>
+        </is>
+      </c>
+      <c r="J6" s="14" t="n">
+        <v>55512</v>
+      </c>
+      <c r="K6" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
+      <c r="N6" s="16" t="n">
+        <v>5487</v>
+      </c>
+      <c r="O6" s="17" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+      <c r="P6" s="17" t="n">
+        <v>4537</v>
+      </c>
+      <c r="Q6" s="18" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="R6" s="18" t="n">
+        <v>3921</v>
+      </c>
+      <c r="S6" s="19" t="inlineStr">
+        <is>
+          <t>94.4%</t>
+        </is>
+      </c>
+      <c r="T6" s="20" t="n">
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="n"/>
+      <c r="B7" s="11" t="n"/>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="11" t="n"/>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>baardheere</t>
+        </is>
+      </c>
+      <c r="F7" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H7" s="13" t="n">
+        <v>33064</v>
+      </c>
+      <c r="I7" s="14" t="inlineStr">
+        <is>
+          <t>76.5%</t>
+        </is>
+      </c>
+      <c r="J7" s="14" t="n">
+        <v>25288</v>
+      </c>
+      <c r="K7" s="15" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="L7" s="15" t="n">
+        <v>712</v>
+      </c>
+      <c r="M7" s="16" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="N7" s="16" t="n">
+        <v>263</v>
+      </c>
+      <c r="O7" s="17" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="P7" s="17" t="n">
+        <v>243</v>
+      </c>
+      <c r="Q7" s="18" t="inlineStr">
+        <is>
+          <t>19.8%</t>
+        </is>
+      </c>
+      <c r="R7" s="18" t="n">
+        <v>6558</v>
+      </c>
+      <c r="S7" s="19" t="inlineStr">
+        <is>
+          <t>80.2%</t>
+        </is>
+      </c>
+      <c r="T7" s="20" t="n">
+        <v>26506</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="11" t="n"/>
+      <c r="C8" s="11" t="n"/>
+      <c r="D8" s="11" t="n"/>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
           <t>banadir</t>
         </is>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F8" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="G6" s="13" t="inlineStr">
+      <c r="G8" s="13" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H6" s="13" t="n">
+      <c r="H8" s="13" t="n">
         <v>26789</v>
       </c>
-      <c r="I6" s="14" t="inlineStr">
+      <c r="I8" s="14" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J8" s="14" t="n">
+        <v>20080</v>
+      </c>
+      <c r="K8" s="15" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="L8" s="15" t="n">
+        <v>470</v>
+      </c>
+      <c r="M8" s="16" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="N8" s="16" t="n">
+        <v>227</v>
+      </c>
+      <c r="O8" s="17" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+      <c r="P8" s="17" t="n">
+        <v>1595</v>
+      </c>
+      <c r="Q8" s="18" t="inlineStr">
+        <is>
+          <t>16.5%</t>
+        </is>
+      </c>
+      <c r="R8" s="18" t="n">
+        <v>4417</v>
+      </c>
+      <c r="S8" s="19" t="inlineStr">
+        <is>
+          <t>83.5%</t>
+        </is>
+      </c>
+      <c r="T8" s="20" t="n">
+        <v>22373</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="n"/>
+      <c r="B9" s="11" t="n"/>
+      <c r="C9" s="11" t="n"/>
+      <c r="D9" s="11" t="n"/>
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t>baraawe</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="13" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H9" s="13" t="n">
+        <v>49592</v>
+      </c>
+      <c r="I9" s="14" t="inlineStr">
+        <is>
+          <t>27.0%</t>
+        </is>
+      </c>
+      <c r="J9" s="14" t="n">
+        <v>13404</v>
+      </c>
+      <c r="K9" s="15" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="L9" s="15" t="n">
+        <v>395</v>
+      </c>
+      <c r="M9" s="16" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="N9" s="16" t="n">
+        <v>3599</v>
+      </c>
+      <c r="O9" s="17" t="inlineStr">
+        <is>
+          <t>12.8%</t>
+        </is>
+      </c>
+      <c r="P9" s="17" t="n">
+        <v>6359</v>
+      </c>
+      <c r="Q9" s="18" t="inlineStr">
+        <is>
+          <t>52.1%</t>
+        </is>
+      </c>
+      <c r="R9" s="18" t="n">
+        <v>25835</v>
+      </c>
+      <c r="S9" s="19" t="inlineStr">
+        <is>
+          <t>47.9%</t>
+        </is>
+      </c>
+      <c r="T9" s="20" t="n">
+        <v>23757</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="11" t="n"/>
+      <c r="C10" s="11" t="n"/>
+      <c r="D10" s="11" t="n"/>
+      <c r="E10" s="12" t="inlineStr">
+        <is>
+          <t>baydhaba</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" s="13" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H10" s="13" t="n">
+        <v>68576</v>
+      </c>
+      <c r="I10" s="14" t="inlineStr">
+        <is>
+          <t>44.8%</t>
+        </is>
+      </c>
+      <c r="J10" s="14" t="n">
+        <v>30708</v>
+      </c>
+      <c r="K10" s="15" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="L10" s="15" t="n">
+        <v>721</v>
+      </c>
+      <c r="M10" s="16" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="N10" s="16" t="n">
+        <v>3191</v>
+      </c>
+      <c r="O10" s="17" t="inlineStr">
+        <is>
+          <t>16.7%</t>
+        </is>
+      </c>
+      <c r="P10" s="17" t="n">
+        <v>11437</v>
+      </c>
+      <c r="Q10" s="18" t="inlineStr">
+        <is>
+          <t>32.8%</t>
+        </is>
+      </c>
+      <c r="R10" s="18" t="n">
+        <v>22518</v>
+      </c>
+      <c r="S10" s="19" t="inlineStr">
+        <is>
+          <t>67.2%</t>
+        </is>
+      </c>
+      <c r="T10" s="20" t="n">
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="11" t="n"/>
+      <c r="C11" s="11" t="n"/>
+      <c r="D11" s="11" t="n"/>
+      <c r="E11" s="12" t="inlineStr">
+        <is>
+          <t>buur_hakaba</t>
+        </is>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="G11" s="13" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H11" s="13" t="n">
+        <v>26871</v>
+      </c>
+      <c r="I11" s="14" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="J11" s="14" t="n">
+        <v>26871</v>
+      </c>
+      <c r="K11" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P11" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="18" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="19" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="T11" s="20" t="n">
+        <v>26871</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="11" t="n"/>
+      <c r="C12" s="11" t="n"/>
+      <c r="D12" s="11" t="n"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>ceel_waaq</t>
+        </is>
+      </c>
+      <c r="F12" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="13" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H12" s="13" t="n">
+        <v>20314</v>
+      </c>
+      <c r="I12" s="14" t="inlineStr">
+        <is>
+          <t>49.7%</t>
+        </is>
+      </c>
+      <c r="J12" s="14" t="n">
+        <v>10095</v>
+      </c>
+      <c r="K12" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="16" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="N12" s="16" t="n">
+        <v>1017</v>
+      </c>
+      <c r="O12" s="17" t="inlineStr">
+        <is>
+          <t>23.7%</t>
+        </is>
+      </c>
+      <c r="P12" s="17" t="n">
+        <v>4819</v>
+      </c>
+      <c r="Q12" s="18" t="inlineStr">
+        <is>
+          <t>21.6%</t>
+        </is>
+      </c>
+      <c r="R12" s="18" t="n">
+        <v>4383</v>
+      </c>
+      <c r="S12" s="19" t="inlineStr">
+        <is>
+          <t>78.4%</t>
+        </is>
+      </c>
+      <c r="T12" s="20" t="n">
+        <v>15931</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="11" t="n"/>
+      <c r="C13" s="11" t="n"/>
+      <c r="D13" s="11" t="n"/>
+      <c r="E13" s="12" t="inlineStr">
+        <is>
+          <t>diinsoor</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H13" s="13" t="n">
+        <v>59068</v>
+      </c>
+      <c r="I13" s="14" t="inlineStr">
+        <is>
+          <t>24.9%</t>
+        </is>
+      </c>
+      <c r="J13" s="14" t="n">
+        <v>14684</v>
+      </c>
+      <c r="K13" s="15" t="inlineStr">
+        <is>
+          <t>30.7%</t>
+        </is>
+      </c>
+      <c r="L13" s="15" t="n">
+        <v>18141</v>
+      </c>
+      <c r="M13" s="16" t="inlineStr">
+        <is>
+          <t>9.0%</t>
+        </is>
+      </c>
+      <c r="N13" s="16" t="n">
+        <v>5304</v>
+      </c>
+      <c r="O13" s="17" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="P13" s="17" t="n">
+        <v>587</v>
+      </c>
+      <c r="Q13" s="18" t="inlineStr">
+        <is>
+          <t>34.5%</t>
+        </is>
+      </c>
+      <c r="R13" s="18" t="n">
+        <v>20352</v>
+      </c>
+      <c r="S13" s="19" t="inlineStr">
+        <is>
+          <t>65.5%</t>
+        </is>
+      </c>
+      <c r="T13" s="20" t="n">
+        <v>38715</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="11" t="n"/>
+      <c r="C14" s="11" t="n"/>
+      <c r="D14" s="11" t="n"/>
+      <c r="E14" s="12" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" s="13" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H14" s="13" t="n">
+        <v>22673</v>
+      </c>
+      <c r="I14" s="14" t="inlineStr">
+        <is>
+          <t>54.3%</t>
+        </is>
+      </c>
+      <c r="J14" s="14" t="n">
+        <v>12303</v>
+      </c>
+      <c r="K14" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="16" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="N14" s="16" t="n">
+        <v>425</v>
+      </c>
+      <c r="O14" s="17" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="P14" s="17" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="18" t="inlineStr">
+        <is>
+          <t>43.5%</t>
+        </is>
+      </c>
+      <c r="R14" s="18" t="n">
+        <v>9855</v>
+      </c>
+      <c r="S14" s="19" t="inlineStr">
+        <is>
+          <t>56.5%</t>
+        </is>
+      </c>
+      <c r="T14" s="20" t="n">
+        <v>12819</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="11" t="n"/>
+      <c r="C15" s="11" t="n"/>
+      <c r="D15" s="11" t="n"/>
+      <c r="E15" s="12" t="inlineStr">
+        <is>
+          <t>galdogob</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="13" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H15" s="13" t="n">
+        <v>26893</v>
+      </c>
+      <c r="I15" s="14" t="inlineStr">
+        <is>
+          <t>45.3%</t>
+        </is>
+      </c>
+      <c r="J15" s="14" t="n">
+        <v>12183</v>
+      </c>
+      <c r="K15" s="15" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="L15" s="15" t="n">
+        <v>218</v>
+      </c>
+      <c r="M15" s="16" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="N15" s="16" t="n">
+        <v>300</v>
+      </c>
+      <c r="O15" s="17" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="P15" s="17" t="n">
+        <v>552</v>
+      </c>
+      <c r="Q15" s="18" t="inlineStr">
+        <is>
+          <t>50.7%</t>
+        </is>
+      </c>
+      <c r="R15" s="18" t="n">
+        <v>13640</v>
+      </c>
+      <c r="S15" s="19" t="inlineStr">
+        <is>
+          <t>49.3%</t>
+        </is>
+      </c>
+      <c r="T15" s="20" t="n">
+        <v>13254</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="11" t="n"/>
+      <c r="D16" s="11" t="n"/>
+      <c r="E16" s="12" t="inlineStr">
+        <is>
+          <t>garbahaarey</t>
+        </is>
+      </c>
+      <c r="F16" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="G16" s="13" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H16" s="13" t="n">
+        <v>23537</v>
+      </c>
+      <c r="I16" s="14" t="inlineStr">
+        <is>
+          <t>88.9%</t>
+        </is>
+      </c>
+      <c r="J16" s="14" t="n">
+        <v>20927</v>
+      </c>
+      <c r="K16" s="15" t="inlineStr">
+        <is>
+          <t>5.7%</t>
+        </is>
+      </c>
+      <c r="L16" s="15" t="n">
+        <v>1342</v>
+      </c>
+      <c r="M16" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="18" t="inlineStr">
+        <is>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="R16" s="18" t="n">
+        <v>1268</v>
+      </c>
+      <c r="S16" s="19" t="inlineStr">
+        <is>
+          <t>94.6%</t>
+        </is>
+      </c>
+      <c r="T16" s="20" t="n">
+        <v>22269</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="11" t="n"/>
+      <c r="C17" s="11" t="n"/>
+      <c r="D17" s="11" t="n"/>
+      <c r="E17" s="12" t="inlineStr">
+        <is>
+          <t>hobyo</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" s="13" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H17" s="13" t="n">
+        <v>134175</v>
+      </c>
+      <c r="I17" s="14" t="inlineStr">
+        <is>
+          <t>26.0%</t>
+        </is>
+      </c>
+      <c r="J17" s="14" t="n">
+        <v>34825</v>
+      </c>
+      <c r="K17" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N17" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="18" t="inlineStr">
         <is>
           <t>74.0%</t>
         </is>
       </c>
-      <c r="J6" s="14" t="n">
-        <v>19812</v>
-      </c>
-      <c r="K6" s="15" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="L6" s="15" t="n">
-        <v>477</v>
-      </c>
-      <c r="M6" s="16" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="N6" s="16" t="n">
-        <v>279</v>
-      </c>
-      <c r="O6" s="17" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="P6" s="17" t="n">
-        <v>1802</v>
-      </c>
-      <c r="Q6" s="18" t="inlineStr">
-        <is>
-          <t>16.5%</t>
-        </is>
-      </c>
-      <c r="R6" s="18" t="n">
-        <v>4419</v>
-      </c>
-      <c r="S6" s="19" t="inlineStr">
-        <is>
-          <t>83.5%</t>
-        </is>
-      </c>
-      <c r="T6" s="20" t="n">
-        <v>22371</v>
+      <c r="R17" s="18" t="n">
+        <v>99350</v>
+      </c>
+      <c r="S17" s="19" t="inlineStr">
+        <is>
+          <t>26.0%</t>
+        </is>
+      </c>
+      <c r="T17" s="20" t="n">
+        <v>34825</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="11" t="n"/>
+      <c r="C18" s="11" t="n"/>
+      <c r="D18" s="11" t="n"/>
+      <c r="E18" s="12" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="F18" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="13" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H18" s="13" t="n">
+        <v>24364</v>
+      </c>
+      <c r="I18" s="14" t="inlineStr">
+        <is>
+          <t>32.7%</t>
+        </is>
+      </c>
+      <c r="J18" s="14" t="n">
+        <v>7964</v>
+      </c>
+      <c r="K18" s="15" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="L18" s="15" t="n">
+        <v>1099</v>
+      </c>
+      <c r="M18" s="16" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="N18" s="16" t="n">
+        <v>199</v>
+      </c>
+      <c r="O18" s="17" t="inlineStr">
+        <is>
+          <t>9.4%</t>
+        </is>
+      </c>
+      <c r="P18" s="17" t="n">
+        <v>2291</v>
+      </c>
+      <c r="Q18" s="18" t="inlineStr">
+        <is>
+          <t>52.6%</t>
+        </is>
+      </c>
+      <c r="R18" s="18" t="n">
+        <v>12811</v>
+      </c>
+      <c r="S18" s="19" t="inlineStr">
+        <is>
+          <t>47.4%</t>
+        </is>
+      </c>
+      <c r="T18" s="20" t="n">
+        <v>11553</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="11" t="n"/>
+      <c r="C19" s="11" t="n"/>
+      <c r="D19" s="11" t="n"/>
+      <c r="E19" s="12" t="inlineStr">
+        <is>
+          <t>marka</t>
+        </is>
+      </c>
+      <c r="F19" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="G19" s="13" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H19" s="13" t="n">
+        <v>23383</v>
+      </c>
+      <c r="I19" s="14" t="inlineStr">
+        <is>
+          <t>93.1%</t>
+        </is>
+      </c>
+      <c r="J19" s="14" t="n">
+        <v>21764</v>
+      </c>
+      <c r="K19" s="15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P19" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="18" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+      <c r="R19" s="18" t="n">
+        <v>1619</v>
+      </c>
+      <c r="S19" s="19" t="inlineStr">
+        <is>
+          <t>93.1%</t>
+        </is>
+      </c>
+      <c r="T19" s="20" t="n">
+        <v>21764</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="11" t="n"/>
+      <c r="C20" s="11" t="n"/>
+      <c r="D20" s="11" t="n"/>
+      <c r="E20" s="12" t="inlineStr">
+        <is>
+          <t>qansax_dheere</t>
+        </is>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" s="13" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H20" s="13" t="n">
+        <v>29539</v>
+      </c>
+      <c r="I20" s="14" t="inlineStr">
+        <is>
+          <t>20.9%</t>
+        </is>
+      </c>
+      <c r="J20" s="14" t="n">
+        <v>6170</v>
+      </c>
+      <c r="K20" s="15" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="L20" s="15" t="n">
+        <v>265</v>
+      </c>
+      <c r="M20" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N20" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="17" t="inlineStr">
+        <is>
+          <t>78.2%</t>
+        </is>
+      </c>
+      <c r="P20" s="17" t="n">
+        <v>23104</v>
+      </c>
+      <c r="Q20" s="18" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R20" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="19" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="T20" s="20" t="n">
+        <v>29539</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="n"/>
+      <c r="B21" s="11" t="n"/>
+      <c r="C21" s="11" t="n"/>
+      <c r="D21" s="11" t="n"/>
+      <c r="E21" s="12" t="inlineStr">
+        <is>
+          <t>waajid</t>
+        </is>
+      </c>
+      <c r="F21" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G21" s="13" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H21" s="13" t="n">
+        <v>32609</v>
+      </c>
+      <c r="I21" s="14" t="inlineStr">
+        <is>
+          <t>35.2%</t>
+        </is>
+      </c>
+      <c r="J21" s="14" t="n">
+        <v>11463</v>
+      </c>
+      <c r="K21" s="15" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="L21" s="15" t="n">
+        <v>399</v>
+      </c>
+      <c r="M21" s="16" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="N21" s="16" t="n">
+        <v>489</v>
+      </c>
+      <c r="O21" s="17" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="P21" s="17" t="n">
+        <v>162</v>
+      </c>
+      <c r="Q21" s="18" t="inlineStr">
+        <is>
+          <t>61.6%</t>
+        </is>
+      </c>
+      <c r="R21" s="18" t="n">
+        <v>20097</v>
+      </c>
+      <c r="S21" s="19" t="inlineStr">
+        <is>
+          <t>38.4%</t>
+        </is>
+      </c>
+      <c r="T21" s="20" t="n">
+        <v>12512</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="11" t="n"/>
+      <c r="C22" s="11" t="n"/>
+      <c r="D22" s="11" t="n"/>
+      <c r="E22" s="21" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="F22" s="22" t="n">
+        <v>17</v>
+      </c>
+      <c r="G22" s="22" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H22" s="22" t="n">
+        <v>81207</v>
+      </c>
+      <c r="I22" s="23" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="J22" s="23" t="n">
+        <v>6300</v>
+      </c>
+      <c r="K22" s="24" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L22" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="25" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="N22" s="25" t="n">
+        <v>4927</v>
+      </c>
+      <c r="O22" s="26" t="inlineStr">
+        <is>
+          <t>29.5%</t>
+        </is>
+      </c>
+      <c r="P22" s="26" t="n">
+        <v>23967</v>
+      </c>
+      <c r="Q22" s="27" t="inlineStr">
+        <is>
+          <t>56.7%</t>
+        </is>
+      </c>
+      <c r="R22" s="27" t="n">
+        <v>46014</v>
+      </c>
+      <c r="S22" s="28" t="inlineStr">
+        <is>
+          <t>43.3%</t>
+        </is>
+      </c>
+      <c r="T22" s="20" t="n">
+        <v>35193</v>
       </c>
     </row>
   </sheetData>

--- a/output/Dimension_JIAF_Somalia___SOM.xlsx
+++ b/output/Dimension_JIAF_Somalia___SOM.xlsx
@@ -720,35 +720,35 @@
       </c>
       <c r="M6" s="16" t="inlineStr">
         <is>
-          <t>22.1%</t>
+          <t>26.1%</t>
         </is>
       </c>
       <c r="N6" s="16" t="n">
-        <v>53665</v>
+        <v>63430</v>
       </c>
       <c r="O6" s="17" t="inlineStr">
         <is>
-          <t>41.9%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="P6" s="17" t="n">
-        <v>101746</v>
+        <v>90402</v>
       </c>
       <c r="Q6" s="18" t="inlineStr">
         <is>
-          <t>36.1%</t>
+          <t>36.7%</t>
         </is>
       </c>
       <c r="R6" s="18" t="n">
-        <v>87688</v>
+        <v>89268</v>
       </c>
       <c r="S6" s="19" t="inlineStr">
         <is>
-          <t>63.9%</t>
+          <t>63.3%</t>
         </is>
       </c>
       <c r="T6" s="20" t="n">
-        <v>155412</v>
+        <v>153832</v>
       </c>
     </row>
     <row r="7">
@@ -774,11 +774,11 @@
       </c>
       <c r="I7" s="14" t="inlineStr">
         <is>
-          <t>59.4%</t>
+          <t>62.1%</t>
         </is>
       </c>
       <c r="J7" s="14" t="n">
-        <v>68701</v>
+        <v>71847</v>
       </c>
       <c r="K7" s="15" t="inlineStr">
         <is>
@@ -798,27 +798,27 @@
       </c>
       <c r="O7" s="17" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="P7" s="17" t="n">
-        <v>6964</v>
+        <v>6236</v>
       </c>
       <c r="Q7" s="18" t="inlineStr">
         <is>
-          <t>34.6%</t>
+          <t>32.5%</t>
         </is>
       </c>
       <c r="R7" s="18" t="n">
-        <v>40061</v>
+        <v>37643</v>
       </c>
       <c r="S7" s="19" t="inlineStr">
         <is>
-          <t>65.4%</t>
+          <t>67.5%</t>
         </is>
       </c>
       <c r="T7" s="20" t="n">
-        <v>75665</v>
+        <v>78083</v>
       </c>
     </row>
     <row r="8">
@@ -844,19 +844,19 @@
       </c>
       <c r="I8" s="14" t="inlineStr">
         <is>
-          <t>49.0%</t>
+          <t>46.5%</t>
         </is>
       </c>
       <c r="J8" s="14" t="n">
-        <v>45945</v>
+        <v>43580</v>
       </c>
       <c r="K8" s="15" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="L8" s="15" t="n">
-        <v>972</v>
+        <v>1237</v>
       </c>
       <c r="M8" s="16" t="inlineStr">
         <is>
@@ -868,27 +868,27 @@
       </c>
       <c r="O8" s="17" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>11.3%</t>
         </is>
       </c>
       <c r="P8" s="17" t="n">
-        <v>12917</v>
+        <v>10639</v>
       </c>
       <c r="Q8" s="18" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>40.9%</t>
         </is>
       </c>
       <c r="R8" s="18" t="n">
-        <v>33929</v>
+        <v>38306</v>
       </c>
       <c r="S8" s="19" t="inlineStr">
         <is>
-          <t>63.8%</t>
+          <t>59.1%</t>
         </is>
       </c>
       <c r="T8" s="20" t="n">
-        <v>59834</v>
+        <v>55457</v>
       </c>
     </row>
     <row r="9">
@@ -914,11 +914,11 @@
       </c>
       <c r="I9" s="14" t="inlineStr">
         <is>
-          <t>48.8%</t>
+          <t>57.4%</t>
         </is>
       </c>
       <c r="J9" s="14" t="n">
-        <v>84643</v>
+        <v>99583</v>
       </c>
       <c r="K9" s="15" t="inlineStr">
         <is>
@@ -930,35 +930,35 @@
       </c>
       <c r="M9" s="16" t="inlineStr">
         <is>
-          <t>18.5%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="N9" s="16" t="n">
-        <v>32054</v>
+        <v>24841</v>
       </c>
       <c r="O9" s="17" t="inlineStr">
         <is>
-          <t>18.5%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="P9" s="17" t="n">
-        <v>32054</v>
+        <v>24841</v>
       </c>
       <c r="Q9" s="18" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>14.0%</t>
         </is>
       </c>
       <c r="R9" s="18" t="n">
-        <v>24824</v>
+        <v>24308</v>
       </c>
       <c r="S9" s="19" t="inlineStr">
         <is>
-          <t>85.7%</t>
+          <t>86.0%</t>
         </is>
       </c>
       <c r="T9" s="20" t="n">
-        <v>148750</v>
+        <v>149265</v>
       </c>
     </row>
     <row r="10">
@@ -984,35 +984,35 @@
       </c>
       <c r="I10" s="14" t="inlineStr">
         <is>
-          <t>16.9%</t>
+          <t>19.7%</t>
         </is>
       </c>
       <c r="J10" s="14" t="n">
-        <v>40505</v>
+        <v>47334</v>
       </c>
       <c r="K10" s="15" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="L10" s="15" t="n">
-        <v>3827</v>
+        <v>1907</v>
       </c>
       <c r="M10" s="16" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>5.1%</t>
         </is>
       </c>
       <c r="N10" s="16" t="n">
-        <v>14855</v>
+        <v>12157</v>
       </c>
       <c r="O10" s="17" t="inlineStr">
         <is>
-          <t>7.0%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="P10" s="17" t="n">
-        <v>16764</v>
+        <v>14412</v>
       </c>
       <c r="Q10" s="18" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="R10" s="18" t="n">
-        <v>164063</v>
+        <v>164204</v>
       </c>
       <c r="S10" s="19" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="T10" s="20" t="n">
-        <v>75951</v>
+        <v>75810</v>
       </c>
     </row>
     <row r="11">
@@ -1054,27 +1054,27 @@
       </c>
       <c r="I11" s="14" t="inlineStr">
         <is>
-          <t>26.9%</t>
+          <t>30.4%</t>
         </is>
       </c>
       <c r="J11" s="14" t="n">
-        <v>22017</v>
+        <v>24859</v>
       </c>
       <c r="K11" s="15" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="L11" s="15" t="n">
-        <v>3547</v>
+        <v>2937</v>
       </c>
       <c r="M11" s="16" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="N11" s="16" t="n">
-        <v>4042</v>
+        <v>4322</v>
       </c>
       <c r="O11" s="17" t="inlineStr">
         <is>
@@ -1086,19 +1086,19 @@
       </c>
       <c r="Q11" s="18" t="inlineStr">
         <is>
-          <t>63.8%</t>
+          <t>60.8%</t>
         </is>
       </c>
       <c r="R11" s="18" t="n">
-        <v>52247</v>
+        <v>49735</v>
       </c>
       <c r="S11" s="19" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>39.2%</t>
         </is>
       </c>
       <c r="T11" s="20" t="n">
-        <v>29606</v>
+        <v>32117</v>
       </c>
     </row>
     <row r="12">
@@ -1124,27 +1124,27 @@
       </c>
       <c r="I12" s="14" t="inlineStr">
         <is>
-          <t>91.2%</t>
+          <t>92.5%</t>
         </is>
       </c>
       <c r="J12" s="14" t="n">
-        <v>85742</v>
+        <v>86963</v>
       </c>
       <c r="K12" s="15" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="L12" s="15" t="n">
-        <v>4138</v>
+        <v>3910</v>
       </c>
       <c r="M12" s="16" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="N12" s="16" t="n">
-        <v>1390</v>
+        <v>1059</v>
       </c>
       <c r="O12" s="17" t="inlineStr">
         <is>
@@ -1156,19 +1156,19 @@
       </c>
       <c r="Q12" s="18" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="R12" s="18" t="n">
-        <v>2780</v>
+        <v>2118</v>
       </c>
       <c r="S12" s="19" t="inlineStr">
         <is>
-          <t>97.0%</t>
+          <t>97.7%</t>
         </is>
       </c>
       <c r="T12" s="20" t="n">
-        <v>91270</v>
+        <v>91932</v>
       </c>
     </row>
     <row r="13">
@@ -1194,11 +1194,11 @@
       </c>
       <c r="I13" s="14" t="inlineStr">
         <is>
-          <t>56.8%</t>
+          <t>56.0%</t>
         </is>
       </c>
       <c r="J13" s="14" t="n">
-        <v>40382</v>
+        <v>39816</v>
       </c>
       <c r="K13" s="15" t="inlineStr">
         <is>
@@ -1210,35 +1210,35 @@
       </c>
       <c r="M13" s="16" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="N13" s="16" t="n">
-        <v>2991</v>
+        <v>3345</v>
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>8.1%</t>
         </is>
       </c>
       <c r="P13" s="17" t="n">
-        <v>4690</v>
+        <v>5742</v>
       </c>
       <c r="Q13" s="18" t="inlineStr">
         <is>
-          <t>32.4%</t>
+          <t>31.2%</t>
         </is>
       </c>
       <c r="R13" s="18" t="n">
-        <v>23037</v>
+        <v>22197</v>
       </c>
       <c r="S13" s="19" t="inlineStr">
         <is>
-          <t>67.6%</t>
+          <t>68.8%</t>
         </is>
       </c>
       <c r="T13" s="20" t="n">
-        <v>48063</v>
+        <v>48903</v>
       </c>
     </row>
     <row r="14">
@@ -1264,27 +1264,27 @@
       </c>
       <c r="I14" s="14" t="inlineStr">
         <is>
-          <t>41.0%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="J14" s="14" t="n">
-        <v>84743</v>
+        <v>80462</v>
       </c>
       <c r="K14" s="15" t="inlineStr">
         <is>
-          <t>9.9%</t>
+          <t>10.9%</t>
         </is>
       </c>
       <c r="L14" s="15" t="n">
-        <v>20528</v>
+        <v>22616</v>
       </c>
       <c r="M14" s="16" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="N14" s="16" t="n">
-        <v>5465</v>
+        <v>9487</v>
       </c>
       <c r="O14" s="17" t="inlineStr">
         <is>
@@ -1292,23 +1292,23 @@
         </is>
       </c>
       <c r="P14" s="17" t="n">
-        <v>10175</v>
+        <v>10055</v>
       </c>
       <c r="Q14" s="18" t="inlineStr">
         <is>
-          <t>41.5%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="R14" s="18" t="n">
-        <v>85825</v>
+        <v>84116</v>
       </c>
       <c r="S14" s="19" t="inlineStr">
         <is>
-          <t>58.5%</t>
+          <t>59.3%</t>
         </is>
       </c>
       <c r="T14" s="20" t="n">
-        <v>120911</v>
+        <v>122621</v>
       </c>
     </row>
     <row r="15">
@@ -1334,51 +1334,51 @@
       </c>
       <c r="I15" s="14" t="inlineStr">
         <is>
-          <t>43.0%</t>
+          <t>40.5%</t>
         </is>
       </c>
       <c r="J15" s="14" t="n">
-        <v>34116</v>
+        <v>32175</v>
       </c>
       <c r="K15" s="15" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="L15" s="15" t="n">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="M15" s="16" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="N15" s="16" t="n">
-        <v>302</v>
+        <v>404</v>
       </c>
       <c r="O15" s="17" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="P15" s="17" t="n">
-        <v>2528</v>
+        <v>2144</v>
       </c>
       <c r="Q15" s="18" t="inlineStr">
         <is>
-          <t>53.2%</t>
+          <t>55.9%</t>
         </is>
       </c>
       <c r="R15" s="18" t="n">
-        <v>42247</v>
+        <v>44376</v>
       </c>
       <c r="S15" s="19" t="inlineStr">
         <is>
-          <t>46.8%</t>
+          <t>44.1%</t>
         </is>
       </c>
       <c r="T15" s="20" t="n">
-        <v>37110</v>
+        <v>34981</v>
       </c>
     </row>
     <row r="16">
@@ -1404,19 +1404,19 @@
       </c>
       <c r="I16" s="14" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>20.5%</t>
         </is>
       </c>
       <c r="J16" s="14" t="n">
-        <v>18837</v>
+        <v>19254</v>
       </c>
       <c r="K16" s="15" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="L16" s="15" t="n">
-        <v>819</v>
+        <v>623</v>
       </c>
       <c r="M16" s="16" t="inlineStr">
         <is>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="O16" s="17" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="P16" s="17" t="n">
-        <v>586</v>
+        <v>632</v>
       </c>
       <c r="Q16" s="18" t="inlineStr">
         <is>
-          <t>78.5%</t>
+          <t>78.2%</t>
         </is>
       </c>
       <c r="R16" s="18" t="n">
-        <v>73884</v>
+        <v>73618</v>
       </c>
       <c r="S16" s="19" t="inlineStr">
         <is>
-          <t>21.5%</t>
+          <t>21.8%</t>
         </is>
       </c>
       <c r="T16" s="20" t="n">
-        <v>20243</v>
+        <v>20509</v>
       </c>
     </row>
     <row r="17">
@@ -1474,19 +1474,19 @@
       </c>
       <c r="I17" s="14" t="inlineStr">
         <is>
-          <t>90.1%</t>
+          <t>86.8%</t>
         </is>
       </c>
       <c r="J17" s="14" t="n">
-        <v>74257</v>
+        <v>71542</v>
       </c>
       <c r="K17" s="15" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="L17" s="15" t="n">
-        <v>2538</v>
+        <v>2496</v>
       </c>
       <c r="M17" s="16" t="inlineStr">
         <is>
@@ -1506,19 +1506,19 @@
       </c>
       <c r="Q17" s="18" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="R17" s="18" t="n">
-        <v>5585</v>
+        <v>8343</v>
       </c>
       <c r="S17" s="19" t="inlineStr">
         <is>
-          <t>93.2%</t>
+          <t>89.9%</t>
         </is>
       </c>
       <c r="T17" s="20" t="n">
-        <v>76795</v>
+        <v>74037</v>
       </c>
     </row>
     <row r="18">
@@ -1544,27 +1544,27 @@
       </c>
       <c r="I18" s="14" t="inlineStr">
         <is>
-          <t>29.8%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="J18" s="14" t="n">
-        <v>22413</v>
+        <v>22631</v>
       </c>
       <c r="K18" s="15" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="L18" s="15" t="n">
-        <v>3328</v>
+        <v>3100</v>
       </c>
       <c r="M18" s="16" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="N18" s="16" t="n">
-        <v>1535</v>
+        <v>1638</v>
       </c>
       <c r="O18" s="17" t="inlineStr">
         <is>
@@ -1576,19 +1576,19 @@
       </c>
       <c r="Q18" s="18" t="inlineStr">
         <is>
-          <t>63.8%</t>
+          <t>63.7%</t>
         </is>
       </c>
       <c r="R18" s="18" t="n">
-        <v>48040</v>
+        <v>47947</v>
       </c>
       <c r="S18" s="19" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>36.3%</t>
         </is>
       </c>
       <c r="T18" s="20" t="n">
-        <v>27276</v>
+        <v>27369</v>
       </c>
     </row>
     <row r="19">
@@ -1614,27 +1614,27 @@
       </c>
       <c r="I19" s="14" t="inlineStr">
         <is>
-          <t>40.8%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="J19" s="14" t="n">
-        <v>20086</v>
+        <v>20362</v>
       </c>
       <c r="K19" s="15" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="L19" s="15" t="n">
-        <v>2946</v>
+        <v>2541</v>
       </c>
       <c r="M19" s="16" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>13.6%</t>
         </is>
       </c>
       <c r="N19" s="16" t="n">
-        <v>7389</v>
+        <v>6716</v>
       </c>
       <c r="O19" s="17" t="inlineStr">
         <is>
@@ -1646,19 +1646,19 @@
       </c>
       <c r="Q19" s="18" t="inlineStr">
         <is>
-          <t>38.3%</t>
+          <t>39.9%</t>
         </is>
       </c>
       <c r="R19" s="18" t="n">
-        <v>18863</v>
+        <v>19666</v>
       </c>
       <c r="S19" s="19" t="inlineStr">
         <is>
-          <t>61.7%</t>
+          <t>60.1%</t>
         </is>
       </c>
       <c r="T19" s="20" t="n">
-        <v>30421</v>
+        <v>29619</v>
       </c>
     </row>
     <row r="20">
@@ -1684,11 +1684,11 @@
       </c>
       <c r="I20" s="14" t="inlineStr">
         <is>
-          <t>54.2%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="J20" s="14" t="n">
-        <v>254687</v>
+        <v>258196</v>
       </c>
       <c r="K20" s="15" t="inlineStr">
         <is>
@@ -1696,39 +1696,39 @@
         </is>
       </c>
       <c r="L20" s="15" t="n">
-        <v>5560</v>
+        <v>5673</v>
       </c>
       <c r="M20" s="16" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="N20" s="16" t="n">
-        <v>20542</v>
+        <v>23661</v>
       </c>
       <c r="O20" s="17" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="P20" s="17" t="n">
-        <v>2342</v>
+        <v>1715</v>
       </c>
       <c r="Q20" s="18" t="inlineStr">
         <is>
-          <t>39.7%</t>
+          <t>38.4%</t>
         </is>
       </c>
       <c r="R20" s="18" t="n">
-        <v>186481</v>
+        <v>180368</v>
       </c>
       <c r="S20" s="19" t="inlineStr">
         <is>
-          <t>60.3%</t>
+          <t>61.6%</t>
         </is>
       </c>
       <c r="T20" s="20" t="n">
-        <v>283132</v>
+        <v>289245</v>
       </c>
     </row>
     <row r="21">
@@ -1754,19 +1754,19 @@
       </c>
       <c r="I21" s="14" t="inlineStr">
         <is>
-          <t>50.4%</t>
+          <t>53.0%</t>
         </is>
       </c>
       <c r="J21" s="14" t="n">
-        <v>39276</v>
+        <v>41304</v>
       </c>
       <c r="K21" s="15" t="inlineStr">
         <is>
-          <t>7.3%</t>
+          <t>7.8%</t>
         </is>
       </c>
       <c r="L21" s="15" t="n">
-        <v>5685</v>
+        <v>6084</v>
       </c>
       <c r="M21" s="16" t="inlineStr">
         <is>
@@ -1786,19 +1786,19 @@
       </c>
       <c r="Q21" s="18" t="inlineStr">
         <is>
-          <t>42.3%</t>
+          <t>39.2%</t>
         </is>
       </c>
       <c r="R21" s="18" t="n">
-        <v>33009</v>
+        <v>30581</v>
       </c>
       <c r="S21" s="19" t="inlineStr">
         <is>
-          <t>57.7%</t>
+          <t>60.8%</t>
         </is>
       </c>
       <c r="T21" s="20" t="n">
-        <v>44960</v>
+        <v>47388</v>
       </c>
     </row>
     <row r="22">
@@ -1824,27 +1824,27 @@
       </c>
       <c r="I22" s="14" t="inlineStr">
         <is>
-          <t>57.9%</t>
+          <t>51.3%</t>
         </is>
       </c>
       <c r="J22" s="14" t="n">
-        <v>49414</v>
+        <v>43754</v>
       </c>
       <c r="K22" s="15" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="L22" s="15" t="n">
-        <v>1691</v>
+        <v>2065</v>
       </c>
       <c r="M22" s="16" t="inlineStr">
         <is>
-          <t>14.9%</t>
+          <t>13.1%</t>
         </is>
       </c>
       <c r="N22" s="16" t="n">
-        <v>12675</v>
+        <v>11210</v>
       </c>
       <c r="O22" s="17" t="inlineStr">
         <is>
@@ -1856,19 +1856,19 @@
       </c>
       <c r="Q22" s="18" t="inlineStr">
         <is>
-          <t>25.2%</t>
+          <t>33.1%</t>
         </is>
       </c>
       <c r="R22" s="18" t="n">
-        <v>21495</v>
+        <v>28247</v>
       </c>
       <c r="S22" s="19" t="inlineStr">
         <is>
-          <t>74.8%</t>
+          <t>66.9%</t>
         </is>
       </c>
       <c r="T22" s="20" t="n">
-        <v>63780</v>
+        <v>57028</v>
       </c>
     </row>
     <row r="23">
@@ -1894,11 +1894,11 @@
       </c>
       <c r="I23" s="14" t="inlineStr">
         <is>
-          <t>42.5%</t>
+          <t>36.5%</t>
         </is>
       </c>
       <c r="J23" s="14" t="n">
-        <v>34791</v>
+        <v>29900</v>
       </c>
       <c r="K23" s="15" t="inlineStr">
         <is>
@@ -1926,19 +1926,19 @@
       </c>
       <c r="Q23" s="18" t="inlineStr">
         <is>
-          <t>57.5%</t>
+          <t>63.5%</t>
         </is>
       </c>
       <c r="R23" s="18" t="n">
-        <v>47049</v>
+        <v>51940</v>
       </c>
       <c r="S23" s="19" t="inlineStr">
         <is>
-          <t>42.5%</t>
+          <t>36.5%</t>
         </is>
       </c>
       <c r="T23" s="20" t="n">
-        <v>34791</v>
+        <v>29900</v>
       </c>
     </row>
     <row r="24">
@@ -1964,27 +1964,27 @@
       </c>
       <c r="I24" s="14" t="inlineStr">
         <is>
-          <t>30.1%</t>
+          <t>27.5%</t>
         </is>
       </c>
       <c r="J24" s="14" t="n">
-        <v>35093</v>
+        <v>32096</v>
       </c>
       <c r="K24" s="15" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>5.7%</t>
         </is>
       </c>
       <c r="L24" s="15" t="n">
-        <v>6549</v>
+        <v>6591</v>
       </c>
       <c r="M24" s="16" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="N24" s="16" t="n">
-        <v>4776</v>
+        <v>5589</v>
       </c>
       <c r="O24" s="17" t="inlineStr">
         <is>
@@ -1992,23 +1992,23 @@
         </is>
       </c>
       <c r="P24" s="17" t="n">
-        <v>347</v>
+        <v>407</v>
       </c>
       <c r="Q24" s="18" t="inlineStr">
         <is>
-          <t>59.9%</t>
+          <t>61.7%</t>
         </is>
       </c>
       <c r="R24" s="18" t="n">
-        <v>69845</v>
+        <v>71926</v>
       </c>
       <c r="S24" s="19" t="inlineStr">
         <is>
-          <t>40.1%</t>
+          <t>38.3%</t>
         </is>
       </c>
       <c r="T24" s="20" t="n">
-        <v>46765</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="25">
@@ -2034,11 +2034,11 @@
       </c>
       <c r="I25" s="14" t="inlineStr">
         <is>
-          <t>54.2%</t>
+          <t>66.3%</t>
         </is>
       </c>
       <c r="J25" s="14" t="n">
-        <v>56024</v>
+        <v>68497</v>
       </c>
       <c r="K25" s="15" t="inlineStr">
         <is>
@@ -2058,27 +2058,27 @@
       </c>
       <c r="O25" s="17" t="inlineStr">
         <is>
-          <t>34.5%</t>
+          <t>26.1%</t>
         </is>
       </c>
       <c r="P25" s="17" t="n">
-        <v>35711</v>
+        <v>26940</v>
       </c>
       <c r="Q25" s="18" t="inlineStr">
         <is>
-          <t>11.3%</t>
+          <t>7.7%</t>
         </is>
       </c>
       <c r="R25" s="18" t="n">
-        <v>11652</v>
+        <v>7950</v>
       </c>
       <c r="S25" s="19" t="inlineStr">
         <is>
-          <t>88.7%</t>
+          <t>92.3%</t>
         </is>
       </c>
       <c r="T25" s="20" t="n">
-        <v>91735</v>
+        <v>95437</v>
       </c>
     </row>
     <row r="26">
@@ -2104,11 +2104,11 @@
       </c>
       <c r="I26" s="14" t="inlineStr">
         <is>
-          <t>74.5%</t>
+          <t>74.0%</t>
         </is>
       </c>
       <c r="J26" s="14" t="n">
-        <v>52690</v>
+        <v>52376</v>
       </c>
       <c r="K26" s="15" t="inlineStr">
         <is>
@@ -2124,31 +2124,31 @@
         </is>
       </c>
       <c r="N26" s="16" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="O26" s="17" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="P26" s="17" t="n">
-        <v>992</v>
+        <v>1375</v>
       </c>
       <c r="Q26" s="18" t="inlineStr">
         <is>
-          <t>23.2%</t>
+          <t>23.1%</t>
         </is>
       </c>
       <c r="R26" s="18" t="n">
-        <v>16422</v>
+        <v>16351</v>
       </c>
       <c r="S26" s="19" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="T26" s="20" t="n">
-        <v>54338</v>
+        <v>54409</v>
       </c>
     </row>
     <row r="27">
@@ -2174,11 +2174,11 @@
       </c>
       <c r="I27" s="14" t="inlineStr">
         <is>
-          <t>50.1%</t>
+          <t>50.6%</t>
         </is>
       </c>
       <c r="J27" s="14" t="n">
-        <v>57150</v>
+        <v>57771</v>
       </c>
       <c r="K27" s="15" t="inlineStr">
         <is>
@@ -2206,19 +2206,19 @@
       </c>
       <c r="Q27" s="18" t="inlineStr">
         <is>
-          <t>49.9%</t>
+          <t>49.4%</t>
         </is>
       </c>
       <c r="R27" s="18" t="n">
-        <v>56982</v>
+        <v>56361</v>
       </c>
       <c r="S27" s="19" t="inlineStr">
         <is>
-          <t>50.1%</t>
+          <t>50.6%</t>
         </is>
       </c>
       <c r="T27" s="20" t="n">
-        <v>57150</v>
+        <v>57771</v>
       </c>
     </row>
     <row r="28">
@@ -2314,11 +2314,11 @@
       </c>
       <c r="I29" s="23" t="inlineStr">
         <is>
-          <t>42.1%</t>
+          <t>39.3%</t>
         </is>
       </c>
       <c r="J29" s="23" t="n">
-        <v>41576</v>
+        <v>38869</v>
       </c>
       <c r="K29" s="24" t="inlineStr">
         <is>
@@ -2330,35 +2330,35 @@
       </c>
       <c r="M29" s="25" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>5.1%</t>
         </is>
       </c>
       <c r="N29" s="25" t="n">
-        <v>5691</v>
+        <v>5062</v>
       </c>
       <c r="O29" s="26" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="P29" s="26" t="n">
-        <v>4777</v>
+        <v>4670</v>
       </c>
       <c r="Q29" s="27" t="inlineStr">
         <is>
-          <t>47.3%</t>
+          <t>50.8%</t>
         </is>
       </c>
       <c r="R29" s="27" t="n">
-        <v>46777</v>
+        <v>50220</v>
       </c>
       <c r="S29" s="28" t="inlineStr">
         <is>
-          <t>52.7%</t>
+          <t>49.2%</t>
         </is>
       </c>
       <c r="T29" s="20" t="n">
-        <v>52044</v>
+        <v>48601</v>
       </c>
     </row>
   </sheetData>
@@ -2520,11 +2520,11 @@
       </c>
       <c r="I6" s="14" t="inlineStr">
         <is>
-          <t>64.3%</t>
+          <t>68.7%</t>
         </is>
       </c>
       <c r="J6" s="14" t="n">
-        <v>22341</v>
+        <v>23874</v>
       </c>
       <c r="K6" s="15" t="inlineStr">
         <is>
@@ -2544,27 +2544,27 @@
       </c>
       <c r="O6" s="17" t="inlineStr">
         <is>
-          <t>23.2%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="P6" s="17" t="n">
-        <v>8052</v>
+        <v>8413</v>
       </c>
       <c r="Q6" s="18" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>7.0%</t>
         </is>
       </c>
       <c r="R6" s="18" t="n">
-        <v>4335</v>
+        <v>2441</v>
       </c>
       <c r="S6" s="19" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>93.0%</t>
         </is>
       </c>
       <c r="T6" s="20" t="n">
-        <v>30393</v>
+        <v>32287</v>
       </c>
     </row>
     <row r="7">
@@ -2590,19 +2590,19 @@
       </c>
       <c r="I7" s="14" t="inlineStr">
         <is>
-          <t>55.3%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="J7" s="14" t="n">
-        <v>9149</v>
+        <v>9093</v>
       </c>
       <c r="K7" s="15" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="L7" s="15" t="n">
-        <v>707</v>
+        <v>813</v>
       </c>
       <c r="M7" s="16" t="inlineStr">
         <is>
@@ -2614,27 +2614,27 @@
       </c>
       <c r="O7" s="17" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="P7" s="17" t="n">
-        <v>654</v>
+        <v>543</v>
       </c>
       <c r="Q7" s="18" t="inlineStr">
         <is>
-          <t>36.4%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="R7" s="18" t="n">
-        <v>6022</v>
+        <v>6083</v>
       </c>
       <c r="S7" s="19" t="inlineStr">
         <is>
-          <t>63.6%</t>
+          <t>63.2%</t>
         </is>
       </c>
       <c r="T7" s="20" t="n">
-        <v>10510</v>
+        <v>10449</v>
       </c>
     </row>
     <row r="8">
@@ -2660,11 +2660,11 @@
       </c>
       <c r="I8" s="14" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>74.5%</t>
         </is>
       </c>
       <c r="J8" s="14" t="n">
-        <v>10064</v>
+        <v>9978</v>
       </c>
       <c r="K8" s="15" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="L8" s="15" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M8" s="16" t="inlineStr">
         <is>
@@ -2680,31 +2680,31 @@
         </is>
       </c>
       <c r="N8" s="16" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O8" s="17" t="inlineStr">
         <is>
-          <t>9.5%</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="P8" s="17" t="n">
-        <v>1268</v>
+        <v>1155</v>
       </c>
       <c r="Q8" s="18" t="inlineStr">
         <is>
-          <t>14.2%</t>
+          <t>15.7%</t>
         </is>
       </c>
       <c r="R8" s="18" t="n">
-        <v>1903</v>
+        <v>2108</v>
       </c>
       <c r="S8" s="19" t="inlineStr">
         <is>
-          <t>85.8%</t>
+          <t>84.3%</t>
         </is>
       </c>
       <c r="T8" s="20" t="n">
-        <v>11491</v>
+        <v>11286</v>
       </c>
     </row>
     <row r="9">
@@ -2730,11 +2730,11 @@
       </c>
       <c r="I9" s="14" t="inlineStr">
         <is>
-          <t>68.4%</t>
+          <t>70.9%</t>
         </is>
       </c>
       <c r="J9" s="14" t="n">
-        <v>16958</v>
+        <v>17572</v>
       </c>
       <c r="K9" s="15" t="inlineStr">
         <is>
@@ -2746,19 +2746,19 @@
       </c>
       <c r="M9" s="16" t="inlineStr">
         <is>
-          <t>7.0%</t>
+          <t>5.9%</t>
         </is>
       </c>
       <c r="N9" s="16" t="n">
-        <v>1732</v>
+        <v>1474</v>
       </c>
       <c r="O9" s="17" t="inlineStr">
         <is>
-          <t>24.6%</t>
+          <t>23.2%</t>
         </is>
       </c>
       <c r="P9" s="17" t="n">
-        <v>6106</v>
+        <v>5750</v>
       </c>
       <c r="Q9" s="18" t="inlineStr">
         <is>
@@ -2800,11 +2800,11 @@
       </c>
       <c r="I10" s="14" t="inlineStr">
         <is>
-          <t>65.8%</t>
+          <t>55.3%</t>
         </is>
       </c>
       <c r="J10" s="14" t="n">
-        <v>7459</v>
+        <v>6270</v>
       </c>
       <c r="K10" s="15" t="inlineStr">
         <is>
@@ -2816,35 +2816,35 @@
       </c>
       <c r="M10" s="16" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="N10" s="16" t="n">
-        <v>134</v>
+        <v>290</v>
       </c>
       <c r="O10" s="17" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>5.1%</t>
         </is>
       </c>
       <c r="P10" s="17" t="n">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="Q10" s="18" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="R10" s="18" t="n">
-        <v>3123</v>
+        <v>4194</v>
       </c>
       <c r="S10" s="19" t="inlineStr">
         <is>
-          <t>72.5%</t>
+          <t>63.0%</t>
         </is>
       </c>
       <c r="T10" s="20" t="n">
-        <v>8213</v>
+        <v>7143</v>
       </c>
     </row>
     <row r="11">
@@ -2870,19 +2870,19 @@
       </c>
       <c r="I11" s="14" t="inlineStr">
         <is>
-          <t>68.9%</t>
+          <t>70.7%</t>
         </is>
       </c>
       <c r="J11" s="14" t="n">
-        <v>8390</v>
+        <v>8618</v>
       </c>
       <c r="K11" s="15" t="inlineStr">
         <is>
-          <t>7.2%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="L11" s="15" t="n">
-        <v>880</v>
+        <v>846</v>
       </c>
       <c r="M11" s="16" t="inlineStr">
         <is>
@@ -2894,27 +2894,27 @@
       </c>
       <c r="O11" s="17" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="P11" s="17" t="n">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="Q11" s="18" t="inlineStr">
         <is>
-          <t>19.8%</t>
+          <t>18.4%</t>
         </is>
       </c>
       <c r="R11" s="18" t="n">
-        <v>2415</v>
+        <v>2247</v>
       </c>
       <c r="S11" s="19" t="inlineStr">
         <is>
-          <t>80.2%</t>
+          <t>81.6%</t>
         </is>
       </c>
       <c r="T11" s="20" t="n">
-        <v>9767</v>
+        <v>9935</v>
       </c>
     </row>
     <row r="12">
@@ -2940,51 +2940,51 @@
       </c>
       <c r="I12" s="23" t="inlineStr">
         <is>
-          <t>18.4%</t>
+          <t>20.5%</t>
         </is>
       </c>
       <c r="J12" s="23" t="n">
-        <v>7468</v>
+        <v>8315</v>
       </c>
       <c r="K12" s="24" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="L12" s="24" t="n">
-        <v>929</v>
+        <v>1113</v>
       </c>
       <c r="M12" s="25" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="N12" s="25" t="n">
-        <v>341</v>
+        <v>697</v>
       </c>
       <c r="O12" s="26" t="inlineStr">
         <is>
-          <t>17.3%</t>
+          <t>17.6%</t>
         </is>
       </c>
       <c r="P12" s="26" t="n">
-        <v>7029</v>
+        <v>7146</v>
       </c>
       <c r="Q12" s="27" t="inlineStr">
         <is>
-          <t>61.2%</t>
+          <t>57.5%</t>
         </is>
       </c>
       <c r="R12" s="27" t="n">
-        <v>24837</v>
+        <v>23333</v>
       </c>
       <c r="S12" s="28" t="inlineStr">
         <is>
-          <t>38.8%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="T12" s="20" t="n">
-        <v>15767</v>
+        <v>17271</v>
       </c>
     </row>
   </sheetData>
@@ -3146,11 +3146,11 @@
       </c>
       <c r="I6" s="14" t="inlineStr">
         <is>
-          <t>79.9%</t>
+          <t>78.5%</t>
         </is>
       </c>
       <c r="J6" s="14" t="n">
-        <v>55512</v>
+        <v>54493</v>
       </c>
       <c r="K6" s="15" t="inlineStr">
         <is>
@@ -3162,35 +3162,35 @@
       </c>
       <c r="M6" s="16" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>7.2%</t>
         </is>
       </c>
       <c r="N6" s="16" t="n">
-        <v>5487</v>
+        <v>4968</v>
       </c>
       <c r="O6" s="17" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>8.4%</t>
         </is>
       </c>
       <c r="P6" s="17" t="n">
-        <v>4537</v>
+        <v>5844</v>
       </c>
       <c r="Q6" s="18" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="R6" s="18" t="n">
-        <v>3921</v>
+        <v>4153</v>
       </c>
       <c r="S6" s="19" t="inlineStr">
         <is>
-          <t>94.4%</t>
+          <t>94.0%</t>
         </is>
       </c>
       <c r="T6" s="20" t="n">
-        <v>65536</v>
+        <v>65304</v>
       </c>
     </row>
     <row r="7">
@@ -3216,19 +3216,19 @@
       </c>
       <c r="I7" s="14" t="inlineStr">
         <is>
-          <t>76.5%</t>
+          <t>77.0%</t>
         </is>
       </c>
       <c r="J7" s="14" t="n">
-        <v>25288</v>
+        <v>25449</v>
       </c>
       <c r="K7" s="15" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="L7" s="15" t="n">
-        <v>712</v>
+        <v>677</v>
       </c>
       <c r="M7" s="16" t="inlineStr">
         <is>
@@ -3240,27 +3240,27 @@
       </c>
       <c r="O7" s="17" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="P7" s="17" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="18" t="inlineStr">
         <is>
-          <t>19.8%</t>
+          <t>19.4%</t>
         </is>
       </c>
       <c r="R7" s="18" t="n">
-        <v>6558</v>
+        <v>6401</v>
       </c>
       <c r="S7" s="19" t="inlineStr">
         <is>
-          <t>80.2%</t>
+          <t>80.6%</t>
         </is>
       </c>
       <c r="T7" s="20" t="n">
-        <v>26506</v>
+        <v>26663</v>
       </c>
     </row>
     <row r="8">
@@ -3286,51 +3286,51 @@
       </c>
       <c r="I8" s="14" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>74.0%</t>
         </is>
       </c>
       <c r="J8" s="14" t="n">
-        <v>20080</v>
+        <v>19819</v>
       </c>
       <c r="K8" s="15" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="L8" s="15" t="n">
-        <v>470</v>
+        <v>361</v>
       </c>
       <c r="M8" s="16" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="N8" s="16" t="n">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="O8" s="17" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="P8" s="17" t="n">
-        <v>1595</v>
+        <v>1993</v>
       </c>
       <c r="Q8" s="18" t="inlineStr">
         <is>
-          <t>16.5%</t>
+          <t>16.1%</t>
         </is>
       </c>
       <c r="R8" s="18" t="n">
-        <v>4417</v>
+        <v>4320</v>
       </c>
       <c r="S8" s="19" t="inlineStr">
         <is>
-          <t>83.5%</t>
+          <t>83.9%</t>
         </is>
       </c>
       <c r="T8" s="20" t="n">
-        <v>22373</v>
+        <v>22470</v>
       </c>
     </row>
     <row r="9">
@@ -3356,11 +3356,11 @@
       </c>
       <c r="I9" s="14" t="inlineStr">
         <is>
-          <t>27.0%</t>
+          <t>27.9%</t>
         </is>
       </c>
       <c r="J9" s="14" t="n">
-        <v>13404</v>
+        <v>13830</v>
       </c>
       <c r="K9" s="15" t="inlineStr">
         <is>
@@ -3368,39 +3368,39 @@
         </is>
       </c>
       <c r="L9" s="15" t="n">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="M9" s="16" t="inlineStr">
         <is>
-          <t>7.3%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="N9" s="16" t="n">
-        <v>3599</v>
+        <v>3382</v>
       </c>
       <c r="O9" s="17" t="inlineStr">
         <is>
-          <t>12.8%</t>
+          <t>11.3%</t>
         </is>
       </c>
       <c r="P9" s="17" t="n">
-        <v>6359</v>
+        <v>5609</v>
       </c>
       <c r="Q9" s="18" t="inlineStr">
         <is>
-          <t>52.1%</t>
+          <t>53.2%</t>
         </is>
       </c>
       <c r="R9" s="18" t="n">
-        <v>25835</v>
+        <v>26398</v>
       </c>
       <c r="S9" s="19" t="inlineStr">
         <is>
-          <t>47.9%</t>
+          <t>46.8%</t>
         </is>
       </c>
       <c r="T9" s="20" t="n">
-        <v>23757</v>
+        <v>23195</v>
       </c>
     </row>
     <row r="10">
@@ -3426,51 +3426,51 @@
       </c>
       <c r="I10" s="14" t="inlineStr">
         <is>
-          <t>44.8%</t>
+          <t>47.4%</t>
         </is>
       </c>
       <c r="J10" s="14" t="n">
-        <v>30708</v>
+        <v>32514</v>
       </c>
       <c r="K10" s="15" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="L10" s="15" t="n">
-        <v>721</v>
+        <v>1061</v>
       </c>
       <c r="M10" s="16" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="N10" s="16" t="n">
-        <v>3191</v>
+        <v>2740</v>
       </c>
       <c r="O10" s="17" t="inlineStr">
         <is>
-          <t>16.7%</t>
+          <t>14.8%</t>
         </is>
       </c>
       <c r="P10" s="17" t="n">
-        <v>11437</v>
+        <v>10172</v>
       </c>
       <c r="Q10" s="18" t="inlineStr">
         <is>
-          <t>32.8%</t>
+          <t>32.2%</t>
         </is>
       </c>
       <c r="R10" s="18" t="n">
-        <v>22518</v>
+        <v>22089</v>
       </c>
       <c r="S10" s="19" t="inlineStr">
         <is>
-          <t>67.2%</t>
+          <t>67.8%</t>
         </is>
       </c>
       <c r="T10" s="20" t="n">
-        <v>46057</v>
+        <v>46486</v>
       </c>
     </row>
     <row r="11">
@@ -3566,11 +3566,11 @@
       </c>
       <c r="I12" s="14" t="inlineStr">
         <is>
-          <t>49.7%</t>
+          <t>51.7%</t>
         </is>
       </c>
       <c r="J12" s="14" t="n">
-        <v>10095</v>
+        <v>10500</v>
       </c>
       <c r="K12" s="15" t="inlineStr">
         <is>
@@ -3582,35 +3582,35 @@
       </c>
       <c r="M12" s="16" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="N12" s="16" t="n">
-        <v>1017</v>
+        <v>658</v>
       </c>
       <c r="O12" s="17" t="inlineStr">
         <is>
-          <t>23.7%</t>
+          <t>21.9%</t>
         </is>
       </c>
       <c r="P12" s="17" t="n">
-        <v>4819</v>
+        <v>4443</v>
       </c>
       <c r="Q12" s="18" t="inlineStr">
         <is>
-          <t>21.6%</t>
+          <t>23.2%</t>
         </is>
       </c>
       <c r="R12" s="18" t="n">
-        <v>4383</v>
+        <v>4714</v>
       </c>
       <c r="S12" s="19" t="inlineStr">
         <is>
-          <t>78.4%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="T12" s="20" t="n">
-        <v>15931</v>
+        <v>15601</v>
       </c>
     </row>
     <row r="13">
@@ -3636,51 +3636,51 @@
       </c>
       <c r="I13" s="14" t="inlineStr">
         <is>
-          <t>24.9%</t>
+          <t>23.3%</t>
         </is>
       </c>
       <c r="J13" s="14" t="n">
-        <v>14684</v>
+        <v>13762</v>
       </c>
       <c r="K13" s="15" t="inlineStr">
         <is>
-          <t>30.7%</t>
+          <t>30.1%</t>
         </is>
       </c>
       <c r="L13" s="15" t="n">
-        <v>18141</v>
+        <v>17778</v>
       </c>
       <c r="M13" s="16" t="inlineStr">
         <is>
-          <t>9.0%</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="N13" s="16" t="n">
-        <v>5304</v>
+        <v>4172</v>
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="P13" s="17" t="n">
-        <v>587</v>
+        <v>526</v>
       </c>
       <c r="Q13" s="18" t="inlineStr">
         <is>
-          <t>34.5%</t>
+          <t>38.7%</t>
         </is>
       </c>
       <c r="R13" s="18" t="n">
-        <v>20352</v>
+        <v>22830</v>
       </c>
       <c r="S13" s="19" t="inlineStr">
         <is>
-          <t>65.5%</t>
+          <t>61.3%</t>
         </is>
       </c>
       <c r="T13" s="20" t="n">
-        <v>38715</v>
+        <v>36238</v>
       </c>
     </row>
     <row r="14">
@@ -3706,11 +3706,11 @@
       </c>
       <c r="I14" s="14" t="inlineStr">
         <is>
-          <t>54.3%</t>
+          <t>52.8%</t>
         </is>
       </c>
       <c r="J14" s="14" t="n">
-        <v>12303</v>
+        <v>11960</v>
       </c>
       <c r="K14" s="15" t="inlineStr">
         <is>
@@ -3722,35 +3722,35 @@
       </c>
       <c r="M14" s="16" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="N14" s="16" t="n">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="O14" s="17" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="P14" s="17" t="n">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="18" t="inlineStr">
         <is>
-          <t>43.5%</t>
+          <t>44.5%</t>
         </is>
       </c>
       <c r="R14" s="18" t="n">
-        <v>9855</v>
+        <v>10087</v>
       </c>
       <c r="S14" s="19" t="inlineStr">
         <is>
-          <t>56.5%</t>
+          <t>55.5%</t>
         </is>
       </c>
       <c r="T14" s="20" t="n">
-        <v>12819</v>
+        <v>12586</v>
       </c>
     </row>
     <row r="15">
@@ -3776,51 +3776,51 @@
       </c>
       <c r="I15" s="14" t="inlineStr">
         <is>
-          <t>45.3%</t>
+          <t>43.5%</t>
         </is>
       </c>
       <c r="J15" s="14" t="n">
-        <v>12183</v>
+        <v>11695</v>
       </c>
       <c r="K15" s="15" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="L15" s="15" t="n">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="M15" s="16" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="N15" s="16" t="n">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="O15" s="17" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="P15" s="17" t="n">
-        <v>552</v>
+        <v>694</v>
       </c>
       <c r="Q15" s="18" t="inlineStr">
         <is>
-          <t>50.7%</t>
+          <t>51.8%</t>
         </is>
       </c>
       <c r="R15" s="18" t="n">
-        <v>13640</v>
+        <v>13942</v>
       </c>
       <c r="S15" s="19" t="inlineStr">
         <is>
-          <t>49.3%</t>
+          <t>48.2%</t>
         </is>
       </c>
       <c r="T15" s="20" t="n">
-        <v>13254</v>
+        <v>12952</v>
       </c>
     </row>
     <row r="16">
@@ -3846,19 +3846,19 @@
       </c>
       <c r="I16" s="14" t="inlineStr">
         <is>
-          <t>88.9%</t>
+          <t>89.9%</t>
         </is>
       </c>
       <c r="J16" s="14" t="n">
-        <v>20927</v>
+        <v>21169</v>
       </c>
       <c r="K16" s="15" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>5.9%</t>
         </is>
       </c>
       <c r="L16" s="15" t="n">
-        <v>1342</v>
+        <v>1377</v>
       </c>
       <c r="M16" s="16" t="inlineStr">
         <is>
@@ -3878,19 +3878,19 @@
       </c>
       <c r="Q16" s="18" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="R16" s="18" t="n">
-        <v>1268</v>
+        <v>990</v>
       </c>
       <c r="S16" s="19" t="inlineStr">
         <is>
-          <t>94.6%</t>
+          <t>95.8%</t>
         </is>
       </c>
       <c r="T16" s="20" t="n">
-        <v>22269</v>
+        <v>22547</v>
       </c>
     </row>
     <row r="17">
@@ -3916,11 +3916,11 @@
       </c>
       <c r="I17" s="14" t="inlineStr">
         <is>
-          <t>26.0%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="J17" s="14" t="n">
-        <v>34825</v>
+        <v>32481</v>
       </c>
       <c r="K17" s="15" t="inlineStr">
         <is>
@@ -3948,19 +3948,19 @@
       </c>
       <c r="Q17" s="18" t="inlineStr">
         <is>
-          <t>74.0%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="R17" s="18" t="n">
-        <v>99350</v>
+        <v>101694</v>
       </c>
       <c r="S17" s="19" t="inlineStr">
         <is>
-          <t>26.0%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="T17" s="20" t="n">
-        <v>34825</v>
+        <v>32481</v>
       </c>
     </row>
     <row r="18">
@@ -3986,11 +3986,11 @@
       </c>
       <c r="I18" s="14" t="inlineStr">
         <is>
-          <t>32.7%</t>
+          <t>34.1%</t>
         </is>
       </c>
       <c r="J18" s="14" t="n">
-        <v>7964</v>
+        <v>8303</v>
       </c>
       <c r="K18" s="15" t="inlineStr">
         <is>
@@ -4002,35 +4002,35 @@
       </c>
       <c r="M18" s="16" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="N18" s="16" t="n">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="O18" s="17" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="P18" s="17" t="n">
-        <v>2291</v>
+        <v>1668</v>
       </c>
       <c r="Q18" s="18" t="inlineStr">
         <is>
-          <t>52.6%</t>
+          <t>53.5%</t>
         </is>
       </c>
       <c r="R18" s="18" t="n">
-        <v>12811</v>
+        <v>13046</v>
       </c>
       <c r="S18" s="19" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>46.5%</t>
         </is>
       </c>
       <c r="T18" s="20" t="n">
-        <v>11553</v>
+        <v>11318</v>
       </c>
     </row>
     <row r="19">
@@ -4056,11 +4056,11 @@
       </c>
       <c r="I19" s="14" t="inlineStr">
         <is>
-          <t>93.1%</t>
+          <t>93.6%</t>
         </is>
       </c>
       <c r="J19" s="14" t="n">
-        <v>21764</v>
+        <v>21885</v>
       </c>
       <c r="K19" s="15" t="inlineStr">
         <is>
@@ -4088,19 +4088,19 @@
       </c>
       <c r="Q19" s="18" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="R19" s="18" t="n">
-        <v>1619</v>
+        <v>1498</v>
       </c>
       <c r="S19" s="19" t="inlineStr">
         <is>
-          <t>93.1%</t>
+          <t>93.6%</t>
         </is>
       </c>
       <c r="T19" s="20" t="n">
-        <v>21764</v>
+        <v>21885</v>
       </c>
     </row>
     <row r="20">
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="J20" s="14" t="n">
-        <v>6170</v>
+        <v>6171</v>
       </c>
       <c r="K20" s="15" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="L20" s="15" t="n">
-        <v>265</v>
+        <v>479</v>
       </c>
       <c r="M20" s="16" t="inlineStr">
         <is>
@@ -4150,11 +4150,11 @@
       </c>
       <c r="O20" s="17" t="inlineStr">
         <is>
-          <t>78.2%</t>
+          <t>77.5%</t>
         </is>
       </c>
       <c r="P20" s="17" t="n">
-        <v>23104</v>
+        <v>22889</v>
       </c>
       <c r="Q20" s="18" t="inlineStr">
         <is>
@@ -4196,11 +4196,11 @@
       </c>
       <c r="I21" s="14" t="inlineStr">
         <is>
-          <t>35.2%</t>
+          <t>35.0%</t>
         </is>
       </c>
       <c r="J21" s="14" t="n">
-        <v>11463</v>
+        <v>11407</v>
       </c>
       <c r="K21" s="15" t="inlineStr">
         <is>
@@ -4208,39 +4208,39 @@
         </is>
       </c>
       <c r="L21" s="15" t="n">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="M21" s="16" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="N21" s="16" t="n">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="O21" s="17" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="P21" s="17" t="n">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="Q21" s="18" t="inlineStr">
         <is>
-          <t>61.6%</t>
+          <t>61.5%</t>
         </is>
       </c>
       <c r="R21" s="18" t="n">
-        <v>20097</v>
+        <v>20070</v>
       </c>
       <c r="S21" s="19" t="inlineStr">
         <is>
-          <t>38.4%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="T21" s="20" t="n">
-        <v>12512</v>
+        <v>12539</v>
       </c>
     </row>
     <row r="22">
@@ -4266,11 +4266,11 @@
       </c>
       <c r="I22" s="23" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="J22" s="23" t="n">
-        <v>6300</v>
+        <v>6960</v>
       </c>
       <c r="K22" s="24" t="inlineStr">
         <is>
@@ -4282,35 +4282,35 @@
       </c>
       <c r="M22" s="25" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="N22" s="25" t="n">
-        <v>4927</v>
+        <v>3397</v>
       </c>
       <c r="O22" s="26" t="inlineStr">
         <is>
-          <t>29.5%</t>
+          <t>36.5%</t>
         </is>
       </c>
       <c r="P22" s="26" t="n">
-        <v>23967</v>
+        <v>29671</v>
       </c>
       <c r="Q22" s="27" t="inlineStr">
         <is>
-          <t>56.7%</t>
+          <t>50.7%</t>
         </is>
       </c>
       <c r="R22" s="27" t="n">
-        <v>46014</v>
+        <v>41178</v>
       </c>
       <c r="S22" s="28" t="inlineStr">
         <is>
-          <t>43.3%</t>
+          <t>49.3%</t>
         </is>
       </c>
       <c r="T22" s="20" t="n">
-        <v>35193</v>
+        <v>40029</v>
       </c>
     </row>
   </sheetData>
